--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>957404.210156763</v>
+        <v>955670.7290431205</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.212228714</v>
+        <v>6049179.212228709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C11" t="n">
-        <v>158.166051114121</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>327.4448345146045</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>333.0902356170841</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>231.5596978048557</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173333</v>
+        <v>23.81896975173338</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500373</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U11" t="n">
-        <v>171.691938427054</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>248.3210472430279</v>
       </c>
       <c r="W11" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.2098564790297</v>
       </c>
     </row>
     <row r="12">
@@ -1461,10 +1461,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8553954612995</v>
+        <v>68.73595855061916</v>
       </c>
       <c r="H12" t="n">
-        <v>18.43211025672104</v>
+        <v>18.43211025672105</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S12" t="n">
-        <v>144.0419631757947</v>
+        <v>64.61075194868779</v>
       </c>
       <c r="T12" t="n">
         <v>194.1665539401884</v>
@@ -1509,10 +1509,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>172.2637719338126</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>138.6535482927964</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1528,25 +1528,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152086</v>
+        <v>87.81560987152088</v>
       </c>
       <c r="D13" t="n">
-        <v>69.18426179110538</v>
+        <v>69.1842617911054</v>
       </c>
       <c r="E13" t="n">
-        <v>67.0027514194622</v>
+        <v>67.00275141946221</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98983679582427</v>
+        <v>65.98983679582429</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571731</v>
+        <v>87.31217688571732</v>
       </c>
       <c r="H13" t="n">
         <v>71.70374093278244</v>
       </c>
       <c r="I13" t="n">
-        <v>38.50079242234359</v>
+        <v>38.50079242234361</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76594105089779</v>
+        <v>41.76594105089782</v>
       </c>
       <c r="S13" t="n">
         <v>122.8432739200354</v>
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>123.0019071257055</v>
       </c>
       <c r="D14" t="n">
         <v>275.251830393576</v>
       </c>
       <c r="E14" t="n">
-        <v>302.4991588451548</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F14" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G14" t="n">
-        <v>289.5572747073092</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173335</v>
+        <v>23.81896975173338</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500373</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U14" t="n">
         <v>171.691938427054</v>
       </c>
       <c r="V14" t="n">
-        <v>248.3210472430279</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X14" t="n">
-        <v>290.299889451362</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1686,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>105.5890620776346</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>78.21386922829397</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1701,7 +1701,7 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H15" t="n">
-        <v>18.43211025672104</v>
+        <v>38.50763621590259</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>144.0419631757947</v>
+        <v>64.61075194868779</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1665539401884</v>
+        <v>114.7353427130815</v>
       </c>
       <c r="U15" t="n">
         <v>225.843479337428</v>
@@ -1765,25 +1765,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152086</v>
+        <v>87.81560987152088</v>
       </c>
       <c r="D16" t="n">
-        <v>69.18426179110538</v>
+        <v>69.1842617911054</v>
       </c>
       <c r="E16" t="n">
-        <v>67.0027514194622</v>
+        <v>67.00275141946221</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582427</v>
+        <v>65.98983679582429</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571731</v>
+        <v>87.31217688571732</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278244</v>
+        <v>71.70374093278245</v>
       </c>
       <c r="I16" t="n">
-        <v>38.50079242234359</v>
+        <v>38.50079242234361</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089779</v>
+        <v>41.76594105089782</v>
       </c>
       <c r="S16" t="n">
         <v>122.8432739200354</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.97309655957734</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C17" t="n">
-        <v>206.4104693167935</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D17" t="n">
-        <v>195.8206191664689</v>
+        <v>195.820619166469</v>
       </c>
       <c r="E17" t="n">
-        <v>223.0679476180478</v>
+        <v>223.0679476180479</v>
       </c>
       <c r="F17" t="n">
-        <v>248.0136232874974</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G17" t="n">
-        <v>253.6590243899771</v>
+        <v>253.6590243899772</v>
       </c>
       <c r="H17" t="n">
-        <v>152.1284865777487</v>
+        <v>152.1284865777488</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786031</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U17" t="n">
-        <v>92.26072719994696</v>
+        <v>92.26072719994707</v>
       </c>
       <c r="V17" t="n">
-        <v>168.8898360159209</v>
+        <v>168.889836015921</v>
       </c>
       <c r="W17" t="n">
-        <v>190.378546263199</v>
+        <v>10.48022361350903</v>
       </c>
       <c r="X17" t="n">
-        <v>210.868678224255</v>
+        <v>210.8686782242551</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3755162018396</v>
+        <v>227.3755162018397</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8553954612995</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S18" t="n">
         <v>144.0419631757947</v>
       </c>
       <c r="T18" t="n">
-        <v>35.30413148597438</v>
+        <v>163.7425477918256</v>
       </c>
       <c r="U18" t="n">
-        <v>158.7240424267472</v>
+        <v>225.843479337428</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.96955772772327</v>
+        <v>20.96955772772338</v>
       </c>
       <c r="C19" t="n">
-        <v>8.384398644413807</v>
+        <v>8.38439864441392</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7433881128243</v>
+        <v>7.88096565861037</v>
       </c>
       <c r="H19" t="n">
-        <v>74.83518843717096</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.41206269292832</v>
+        <v>43.41206269292843</v>
       </c>
       <c r="T19" t="n">
-        <v>63.75254983362925</v>
+        <v>130.6923237621976</v>
       </c>
       <c r="U19" t="n">
-        <v>127.3885564706968</v>
+        <v>127.3885564706969</v>
       </c>
       <c r="V19" t="n">
-        <v>93.27522086961397</v>
+        <v>93.27522086961409</v>
       </c>
       <c r="W19" t="n">
-        <v>127.660575882377</v>
+        <v>127.6605758823771</v>
       </c>
       <c r="X19" t="n">
-        <v>66.84723293482313</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.72223089788076</v>
+        <v>59.72223089788088</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.8714192092665</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C20" t="n">
-        <v>206.4104693167935</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D20" t="n">
-        <v>195.8206191664689</v>
+        <v>195.820619166469</v>
       </c>
       <c r="E20" t="n">
-        <v>223.0679476180478</v>
+        <v>223.0679476180479</v>
       </c>
       <c r="F20" t="n">
-        <v>248.0136232874974</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G20" t="n">
-        <v>253.6590243899771</v>
+        <v>253.6590243899772</v>
       </c>
       <c r="H20" t="n">
-        <v>152.1284865777487</v>
+        <v>152.1284865777488</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>92.26072719994696</v>
+        <v>92.26072719994707</v>
       </c>
       <c r="V20" t="n">
-        <v>168.8898360159209</v>
+        <v>41.04984056409291</v>
       </c>
       <c r="W20" t="n">
-        <v>190.378546263199</v>
+        <v>190.3785462631991</v>
       </c>
       <c r="X20" t="n">
-        <v>210.868678224255</v>
+        <v>210.8686782242551</v>
       </c>
       <c r="Y20" t="n">
-        <v>99.53552075001011</v>
+        <v>227.3755162018397</v>
       </c>
     </row>
     <row r="21">
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>7.736857580232421</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>144.0419631757947</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1665539401884</v>
+        <v>111.8038416793504</v>
       </c>
       <c r="U21" t="n">
         <v>225.843479337428</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.96955772772327</v>
+        <v>95.80474616489327</v>
       </c>
       <c r="C22" t="n">
-        <v>8.384398644413807</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>7.880965658610256</v>
+        <v>7.88096565861037</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.2744851471423</v>
+        <v>43.41206269292843</v>
       </c>
       <c r="T22" t="n">
-        <v>150.3831742080818</v>
+        <v>63.75254983362937</v>
       </c>
       <c r="U22" t="n">
-        <v>127.3885564706968</v>
+        <v>127.3885564706969</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>93.27522086961409</v>
       </c>
       <c r="W22" t="n">
-        <v>127.660575882377</v>
+        <v>127.6605758823771</v>
       </c>
       <c r="X22" t="n">
-        <v>66.84723293482313</v>
+        <v>66.84723293482324</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.72223089788076</v>
+        <v>59.72223089788088</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.8714192092665</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C23" t="n">
-        <v>206.4104693167935</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D23" t="n">
-        <v>195.8206191664689</v>
+        <v>195.820619166469</v>
       </c>
       <c r="E23" t="n">
-        <v>223.0679476180478</v>
+        <v>223.0679476180479</v>
       </c>
       <c r="F23" t="n">
-        <v>248.0136232874974</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G23" t="n">
-        <v>253.6590243899771</v>
+        <v>253.6590243899772</v>
       </c>
       <c r="H23" t="n">
-        <v>152.1284865777487</v>
+        <v>152.1284865777488</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786031</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U23" t="n">
-        <v>92.26072719994696</v>
+        <v>92.26072719994707</v>
       </c>
       <c r="V23" t="n">
-        <v>168.8898360159209</v>
+        <v>168.889836015921</v>
       </c>
       <c r="W23" t="n">
-        <v>190.378546263199</v>
+        <v>190.3785462631991</v>
       </c>
       <c r="X23" t="n">
-        <v>210.868678224255</v>
+        <v>210.8686782242551</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3755162018396</v>
+        <v>227.3755162018397</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H24" t="n">
-        <v>59.54353641137811</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>144.0419631757947</v>
+        <v>67.56131437474988</v>
       </c>
       <c r="T24" t="n">
         <v>194.1665539401884</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.96955772772327</v>
+        <v>20.96955772772338</v>
       </c>
       <c r="C25" t="n">
-        <v>8.384398644413807</v>
+        <v>8.38439864441392</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.880965658610256</v>
+        <v>7.88096565861037</v>
       </c>
       <c r="H25" t="n">
-        <v>48.96535419824322</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>202.2744851471423</v>
       </c>
       <c r="T25" t="n">
-        <v>222.6149722878433</v>
+        <v>112.7179040318719</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2509789249108</v>
+        <v>127.3885564706969</v>
       </c>
       <c r="V25" t="n">
-        <v>93.27522086961397</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>127.660575882377</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>66.84723293482313</v>
+        <v>66.84723293482324</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.72223089788076</v>
+        <v>59.72223089788088</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>275.251830393576</v>
       </c>
       <c r="E26" t="n">
-        <v>302.4991588451548</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F26" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G26" t="n">
-        <v>333.0902356170841</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H26" t="n">
-        <v>231.5596978048557</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173333</v>
+        <v>23.81896975173339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.2101971950037</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T26" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U26" t="n">
         <v>171.691938427054</v>
       </c>
       <c r="V26" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W26" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X26" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S27" t="n">
         <v>144.0419631757947</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152085</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D28" t="n">
-        <v>69.18426179110537</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00275141946219</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F28" t="n">
-        <v>65.98983679582426</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571729</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278242</v>
+        <v>71.70374093278247</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234447</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089778</v>
+        <v>41.76594105089783</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
@@ -2770,16 +2770,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V28" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W28" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X28" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>275.251830393576</v>
       </c>
       <c r="E29" t="n">
-        <v>302.4991588451548</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F29" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G29" t="n">
-        <v>333.0902356170841</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H29" t="n">
         <v>231.5596978048557</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173333</v>
+        <v>23.81896975173336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.2101971950037</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T29" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U29" t="n">
         <v>171.691938427054</v>
@@ -2852,10 +2852,10 @@
         <v>248.3210472430279</v>
       </c>
       <c r="W29" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X29" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y29" t="n">
         <v>306.8067274289466</v>
@@ -2950,25 +2950,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152085</v>
+        <v>87.81560987152088</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18426179110537</v>
+        <v>69.1842617911054</v>
       </c>
       <c r="E31" t="n">
-        <v>67.00275141946219</v>
+        <v>67.00275141946221</v>
       </c>
       <c r="F31" t="n">
-        <v>65.98983679582426</v>
+        <v>65.98983679582429</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571729</v>
+        <v>87.31217688571732</v>
       </c>
       <c r="H31" t="n">
-        <v>71.70374093278242</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I31" t="n">
-        <v>38.50079242234357</v>
+        <v>38.50079242234361</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089778</v>
+        <v>41.76594105089781</v>
       </c>
       <c r="S31" t="n">
         <v>122.8432739200354</v>
@@ -3004,7 +3004,7 @@
         <v>143.1837610607363</v>
       </c>
       <c r="U31" t="n">
-        <v>206.8197676978038</v>
+        <v>206.8197676978039</v>
       </c>
       <c r="V31" t="n">
         <v>172.706432096721</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.3026304363736</v>
+        <v>303.3026304363735</v>
       </c>
       <c r="C32" t="n">
         <v>285.8416805439006</v>
       </c>
       <c r="D32" t="n">
-        <v>275.251830393576</v>
+        <v>275.2518303935759</v>
       </c>
       <c r="E32" t="n">
-        <v>302.4991588451549</v>
+        <v>302.4991588451547</v>
       </c>
       <c r="F32" t="n">
-        <v>327.4448345146045</v>
+        <v>327.4448345146044</v>
       </c>
       <c r="G32" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H32" t="n">
-        <v>231.5596978048558</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173339</v>
+        <v>23.81896975173332</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.21019719500376</v>
+        <v>66.2101971950037</v>
       </c>
       <c r="T32" t="n">
-        <v>131.4895384249674</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U32" t="n">
-        <v>171.6919384270541</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V32" t="n">
-        <v>248.321047243028</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W32" t="n">
-        <v>269.8097574903061</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X32" t="n">
-        <v>290.2998894513621</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.8067274289467</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S33" t="n">
         <v>144.0419631757947</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C34" t="n">
-        <v>87.81560987152091</v>
+        <v>87.81560987152082</v>
       </c>
       <c r="D34" t="n">
-        <v>69.18426179110543</v>
+        <v>69.18426179110534</v>
       </c>
       <c r="E34" t="n">
-        <v>67.00275141946224</v>
+        <v>67.00275141946216</v>
       </c>
       <c r="F34" t="n">
-        <v>65.98983679582432</v>
+        <v>65.98983679582423</v>
       </c>
       <c r="G34" t="n">
-        <v>87.31217688571735</v>
+        <v>87.31217688571726</v>
       </c>
       <c r="H34" t="n">
-        <v>71.70374093278247</v>
+        <v>71.7037409327824</v>
       </c>
       <c r="I34" t="n">
-        <v>38.50079242234364</v>
+        <v>38.50079242234355</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76594105089784</v>
+        <v>41.76594105089776</v>
       </c>
       <c r="S34" t="n">
-        <v>122.8432739200354</v>
+        <v>122.8432739200353</v>
       </c>
       <c r="T34" t="n">
         <v>143.1837610607363</v>
       </c>
       <c r="U34" t="n">
-        <v>206.8197676978039</v>
+        <v>206.8197676978038</v>
       </c>
       <c r="V34" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W34" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X34" t="n">
-        <v>146.2784441619302</v>
+        <v>146.2784441619301</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="35">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S36" t="n">
         <v>144.0419631757947</v>
@@ -3424,7 +3424,7 @@
         <v>34.19057175982661</v>
       </c>
       <c r="C37" t="n">
-        <v>114.4049145138089</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D37" t="n">
         <v>2.97406459610167</v>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>21.10197969071359</v>
+        <v>21.1019796907136</v>
       </c>
       <c r="H37" t="n">
-        <v>5.493543737778717</v>
+        <v>5.493543737778719</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315288</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S37" t="n">
         <v>202.2744851471423</v>
       </c>
       <c r="T37" t="n">
-        <v>76.97356386573259</v>
+        <v>199.3718008974455</v>
       </c>
       <c r="U37" t="n">
         <v>140.6095705028001</v>
@@ -3490,7 +3490,7 @@
         <v>80.06824696692647</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="38">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S39" t="n">
         <v>144.0419631757947</v>
@@ -3664,25 +3664,25 @@
         <v>21.60541267651715</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>113.9014815280052</v>
+        <v>21.1019796907136</v>
       </c>
       <c r="H40" t="n">
-        <v>5.493543737778717</v>
+        <v>103.4475246253857</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315288</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.63307672503166</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T40" t="n">
-        <v>76.97356386573259</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U40" t="n">
         <v>140.6095705028001</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.0924332413699</v>
+        <v>237.0924332413697</v>
       </c>
       <c r="C41" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488967</v>
       </c>
       <c r="D41" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985721</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2889616501511</v>
+        <v>236.288961650151</v>
       </c>
       <c r="F41" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196006</v>
       </c>
       <c r="G41" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220803</v>
       </c>
       <c r="H41" t="n">
-        <v>165.349500609852</v>
+        <v>165.3495006098519</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996351</v>
       </c>
       <c r="U41" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320502</v>
       </c>
       <c r="V41" t="n">
-        <v>182.1108500480242</v>
+        <v>182.1108500480241</v>
       </c>
       <c r="W41" t="n">
-        <v>203.5995602953023</v>
+        <v>203.5995602953022</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0896922563583</v>
+        <v>224.0896922563582</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.5965302339429</v>
+        <v>240.5965302339428</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S42" t="n">
         <v>144.0419631757947</v>
@@ -3895,31 +3895,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.19057175982661</v>
+        <v>34.19057175982647</v>
       </c>
       <c r="C43" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651701</v>
       </c>
       <c r="D43" t="n">
-        <v>95.99392683257273</v>
+        <v>2.974064596101528</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7925542244583426</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>21.10197969071359</v>
+        <v>21.10197969071346</v>
       </c>
       <c r="H43" t="n">
-        <v>5.493543737778717</v>
+        <v>103.4475246253872</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315288</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.63307672503166</v>
+        <v>56.63307672503151</v>
       </c>
       <c r="T43" t="n">
-        <v>76.97356386573259</v>
+        <v>76.97356386573244</v>
       </c>
       <c r="U43" t="n">
-        <v>140.6095705028001</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V43" t="n">
-        <v>106.4962349017173</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>140.8815899144803</v>
+        <v>140.8815899144802</v>
       </c>
       <c r="X43" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692632</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998396</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.0924332413699</v>
+        <v>237.0924332413697</v>
       </c>
       <c r="C44" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488967</v>
       </c>
       <c r="D44" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985721</v>
       </c>
       <c r="E44" t="n">
-        <v>236.2889616501511</v>
+        <v>236.288961650151</v>
       </c>
       <c r="F44" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196006</v>
       </c>
       <c r="G44" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220803</v>
       </c>
       <c r="H44" t="n">
-        <v>165.349500609852</v>
+        <v>165.3495006098519</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996351</v>
       </c>
       <c r="U44" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320502</v>
       </c>
       <c r="V44" t="n">
-        <v>182.1108500480242</v>
+        <v>182.1108500480241</v>
       </c>
       <c r="W44" t="n">
-        <v>203.5995602953023</v>
+        <v>203.5995602953022</v>
       </c>
       <c r="X44" t="n">
-        <v>224.0896922563583</v>
+        <v>224.0896922563582</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.5965302339429</v>
+        <v>240.5965302339428</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S45" t="n">
         <v>144.0419631757947</v>
@@ -4132,31 +4132,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.19057175982661</v>
+        <v>34.19057175982647</v>
       </c>
       <c r="C46" t="n">
-        <v>142.1143192864689</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>2.97406459610167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7925542244584847</v>
+        <v>0.7925542244583426</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7433881128243</v>
+        <v>21.10197969071346</v>
       </c>
       <c r="H46" t="n">
-        <v>5.493543737778717</v>
+        <v>5.493543737778577</v>
       </c>
       <c r="I46" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315288</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.63307672503166</v>
+        <v>56.63307672503151</v>
       </c>
       <c r="T46" t="n">
-        <v>76.97356386573259</v>
+        <v>76.97356386573244</v>
       </c>
       <c r="U46" t="n">
-        <v>140.6095705028001</v>
+        <v>140.6095705028</v>
       </c>
       <c r="V46" t="n">
-        <v>106.4962349017173</v>
+        <v>106.4962349017172</v>
       </c>
       <c r="W46" t="n">
-        <v>140.8815899144803</v>
+        <v>140.8815899144802</v>
       </c>
       <c r="X46" t="n">
-        <v>80.06824696692647</v>
+        <v>178.0222278545349</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998396</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1131.618522971278</v>
+        <v>871.4088155891229</v>
       </c>
       <c r="C11" t="n">
-        <v>971.8548349772159</v>
+        <v>582.6798453427587</v>
       </c>
       <c r="D11" t="n">
-        <v>971.8548349772159</v>
+        <v>304.6476934300557</v>
       </c>
       <c r="E11" t="n">
-        <v>971.8548349772159</v>
+        <v>304.6476934300557</v>
       </c>
       <c r="F11" t="n">
-        <v>641.1024768816558</v>
+        <v>304.6476934300557</v>
       </c>
       <c r="G11" t="n">
-        <v>304.6476934300556</v>
+        <v>304.6476934300557</v>
       </c>
       <c r="H11" t="n">
-        <v>70.74900877868617</v>
+        <v>70.7490087786862</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J11" t="n">
-        <v>268.557630304025</v>
+        <v>101.151981283672</v>
       </c>
       <c r="K11" t="n">
-        <v>579.9337098920156</v>
+        <v>233.5157259013833</v>
       </c>
       <c r="L11" t="n">
-        <v>781.0444013511615</v>
+        <v>811.297587640958</v>
       </c>
       <c r="M11" t="n">
-        <v>1036.4882329253</v>
+        <v>1066.741419215096</v>
       </c>
       <c r="N11" t="n">
-        <v>1300.679221131444</v>
+        <v>1644.523280954671</v>
       </c>
       <c r="O11" t="n">
-        <v>1536.812018472637</v>
+        <v>2090.177301161567</v>
       </c>
       <c r="P11" t="n">
-        <v>2022.425618108812</v>
+        <v>2257.210179707974</v>
       </c>
       <c r="Q11" t="n">
-        <v>2309.879447798889</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R11" t="n">
-        <v>2334.472168644745</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S11" t="n">
-        <v>2267.593181579085</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T11" t="n">
-        <v>2134.77546599831</v>
+        <v>2201.654453063971</v>
       </c>
       <c r="U11" t="n">
-        <v>1961.349265566942</v>
+        <v>2201.654453063971</v>
       </c>
       <c r="V11" t="n">
-        <v>1710.519924917419</v>
+        <v>1950.825112414448</v>
       </c>
       <c r="W11" t="n">
-        <v>1437.984816341352</v>
+        <v>1678.290003838381</v>
       </c>
       <c r="X11" t="n">
-        <v>1437.984816341352</v>
+        <v>1385.057792271349</v>
       </c>
       <c r="Y11" t="n">
-        <v>1437.984816341352</v>
+        <v>1177.775108959197</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>831.6948606655816</v>
+        <v>763.8974496446924</v>
       </c>
       <c r="C12" t="n">
-        <v>657.2418313844546</v>
+        <v>589.4444203635654</v>
       </c>
       <c r="D12" t="n">
-        <v>508.3074217232033</v>
+        <v>440.5100107023142</v>
       </c>
       <c r="E12" t="n">
-        <v>349.0699667177478</v>
+        <v>281.2725556968587</v>
       </c>
       <c r="F12" t="n">
-        <v>202.5354087446328</v>
+        <v>134.7379977237436</v>
       </c>
       <c r="G12" t="n">
-        <v>65.30773656150201</v>
+        <v>65.30773656150205</v>
       </c>
       <c r="H12" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J12" t="n">
-        <v>185.1392358768292</v>
+        <v>60.30911088982443</v>
       </c>
       <c r="K12" t="n">
-        <v>548.3928263393643</v>
+        <v>207.6930900948967</v>
       </c>
       <c r="L12" t="n">
-        <v>731.1045614300152</v>
+        <v>757.536767035972</v>
       </c>
       <c r="M12" t="n">
-        <v>963.6774064972806</v>
+        <v>990.1096121032374</v>
       </c>
       <c r="N12" t="n">
-        <v>1541.459268236855</v>
+        <v>1243.246613253081</v>
       </c>
       <c r="O12" t="n">
-        <v>1750.810374762907</v>
+        <v>1821.028474992656</v>
       </c>
       <c r="P12" t="n">
-        <v>2077.019754551159</v>
+        <v>2284.99626940965</v>
       </c>
       <c r="Q12" t="n">
-        <v>2334.472168644745</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R12" t="n">
-        <v>2326.629995268225</v>
+        <v>2326.629995268226</v>
       </c>
       <c r="S12" t="n">
-        <v>2181.133062767422</v>
+        <v>2261.366609461471</v>
       </c>
       <c r="T12" t="n">
-        <v>1985.005230504606</v>
+        <v>2065.238777198654</v>
       </c>
       <c r="U12" t="n">
-        <v>1756.880503901143</v>
+        <v>1837.114050595191</v>
       </c>
       <c r="V12" t="n">
-        <v>1521.7283956694</v>
+        <v>1601.961942363449</v>
       </c>
       <c r="W12" t="n">
-        <v>1347.724585635246</v>
+        <v>1347.724585635247</v>
       </c>
       <c r="X12" t="n">
-        <v>1207.670496450603</v>
+        <v>1139.873085429714</v>
       </c>
       <c r="Y12" t="n">
-        <v>999.9101976856496</v>
+        <v>932.1127866647605</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1229485433558</v>
+        <v>539.1229485433554</v>
       </c>
       <c r="C13" t="n">
-        <v>450.4203123094964</v>
+        <v>450.4203123094959</v>
       </c>
       <c r="D13" t="n">
-        <v>380.537219591208</v>
+        <v>380.5372195912076</v>
       </c>
       <c r="E13" t="n">
-        <v>312.8576727028624</v>
+        <v>312.857672702862</v>
       </c>
       <c r="F13" t="n">
-        <v>246.2012718989994</v>
+        <v>246.201271898999</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0071538326183</v>
+        <v>158.0071538326182</v>
       </c>
       <c r="H13" t="n">
-        <v>85.57913268839349</v>
+        <v>85.57913268839351</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2234082279186</v>
+        <v>120.2234082279185</v>
       </c>
       <c r="K13" t="n">
-        <v>320.311455508008</v>
+        <v>320.3114555080078</v>
       </c>
       <c r="L13" t="n">
         <v>609.8904447105128</v>
@@ -5218,13 +5218,13 @@
         <v>1735.537777472236</v>
       </c>
       <c r="Q13" t="n">
-        <v>1832.298320439747</v>
+        <v>1832.298320439746</v>
       </c>
       <c r="R13" t="n">
         <v>1790.110501196415</v>
       </c>
       <c r="S13" t="n">
-        <v>1666.026386125673</v>
+        <v>1666.026386125672</v>
       </c>
       <c r="T13" t="n">
         <v>1521.396324448161</v>
@@ -5236,13 +5236,13 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330005</v>
+        <v>928.8529033330001</v>
       </c>
       <c r="X13" t="n">
-        <v>781.0968991290307</v>
+        <v>781.0968991290302</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.5378666795481</v>
+        <v>640.5378666795476</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1277.570320355095</v>
+        <v>1445.787358774772</v>
       </c>
       <c r="C14" t="n">
-        <v>1277.570320355095</v>
+        <v>1321.543008142746</v>
       </c>
       <c r="D14" t="n">
-        <v>999.5381684423915</v>
+        <v>1043.510856230043</v>
       </c>
       <c r="E14" t="n">
-        <v>693.9834625381947</v>
+        <v>737.9561503258464</v>
       </c>
       <c r="F14" t="n">
-        <v>363.2311044426345</v>
+        <v>407.2037922302862</v>
       </c>
       <c r="G14" t="n">
-        <v>70.74900877868617</v>
+        <v>70.74900877868622</v>
       </c>
       <c r="H14" t="n">
-        <v>70.74900877868617</v>
+        <v>70.74900877868622</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J14" t="n">
-        <v>268.557630304025</v>
+        <v>101.151981283672</v>
       </c>
       <c r="K14" t="n">
-        <v>400.9213749217364</v>
+        <v>233.5157259013833</v>
       </c>
       <c r="L14" t="n">
-        <v>602.0320663808823</v>
+        <v>757.9760580425486</v>
       </c>
       <c r="M14" t="n">
-        <v>857.4758979550204</v>
+        <v>1013.419889616687</v>
       </c>
       <c r="N14" t="n">
-        <v>1121.666886161165</v>
+        <v>1277.610877822831</v>
       </c>
       <c r="O14" t="n">
-        <v>1536.812018472637</v>
+        <v>1855.392739562406</v>
       </c>
       <c r="P14" t="n">
-        <v>2022.425618108812</v>
+        <v>2022.425618108813</v>
       </c>
       <c r="Q14" t="n">
-        <v>2309.879447798889</v>
+        <v>2309.87944779889</v>
       </c>
       <c r="R14" t="n">
-        <v>2334.472168644745</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S14" t="n">
-        <v>2267.593181579085</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T14" t="n">
-        <v>2267.593181579085</v>
+        <v>2201.654453063971</v>
       </c>
       <c r="U14" t="n">
-        <v>2094.166981147717</v>
+        <v>2028.228252632603</v>
       </c>
       <c r="V14" t="n">
-        <v>1843.337640498194</v>
+        <v>2028.228252632603</v>
       </c>
       <c r="W14" t="n">
-        <v>1570.802531922127</v>
+        <v>1755.693144056537</v>
       </c>
       <c r="X14" t="n">
-        <v>1277.570320355095</v>
+        <v>1755.693144056537</v>
       </c>
       <c r="Y14" t="n">
-        <v>1277.570320355095</v>
+        <v>1445.787358774772</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>683.6639029506441</v>
+        <v>851.9731697152599</v>
       </c>
       <c r="C15" t="n">
-        <v>577.0082846904071</v>
+        <v>677.5201404341329</v>
       </c>
       <c r="D15" t="n">
-        <v>428.0738750291558</v>
+        <v>528.5857307728817</v>
       </c>
       <c r="E15" t="n">
-        <v>349.0699667177478</v>
+        <v>369.3482757674262</v>
       </c>
       <c r="F15" t="n">
-        <v>202.5354087446328</v>
+        <v>222.8137177943111</v>
       </c>
       <c r="G15" t="n">
-        <v>65.30773656150201</v>
+        <v>85.58604561118037</v>
       </c>
       <c r="H15" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J15" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K15" t="n">
-        <v>548.3928263393643</v>
+        <v>286.5722416969115</v>
       </c>
       <c r="L15" t="n">
-        <v>1098.23650328044</v>
+        <v>469.2839767875623</v>
       </c>
       <c r="M15" t="n">
-        <v>1330.809348347705</v>
+        <v>980.7428924670448</v>
       </c>
       <c r="N15" t="n">
-        <v>1583.946349497549</v>
+        <v>1558.524754206619</v>
       </c>
       <c r="O15" t="n">
-        <v>1793.297456023601</v>
+        <v>2136.306615946194</v>
       </c>
       <c r="P15" t="n">
-        <v>2077.019754551159</v>
+        <v>2284.99626940965</v>
       </c>
       <c r="Q15" t="n">
-        <v>2334.472168644745</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R15" t="n">
-        <v>2326.629995268225</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S15" t="n">
-        <v>2181.133062767422</v>
+        <v>2269.208782837991</v>
       </c>
       <c r="T15" t="n">
-        <v>1985.005230504606</v>
+        <v>2153.314497269222</v>
       </c>
       <c r="U15" t="n">
-        <v>1756.880503901143</v>
+        <v>1925.189770665759</v>
       </c>
       <c r="V15" t="n">
-        <v>1521.7283956694</v>
+        <v>1690.037662434016</v>
       </c>
       <c r="W15" t="n">
-        <v>1267.491038941199</v>
+        <v>1435.800305705815</v>
       </c>
       <c r="X15" t="n">
-        <v>1059.639538735666</v>
+        <v>1227.948805500282</v>
       </c>
       <c r="Y15" t="n">
-        <v>851.8792399707122</v>
+        <v>1020.188506735328</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.1229485433555</v>
+        <v>539.1229485433557</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094961</v>
+        <v>450.4203123094962</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5372195912078</v>
+        <v>380.5372195912079</v>
       </c>
       <c r="E16" t="n">
-        <v>312.8576727028621</v>
+        <v>312.8576727028623</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989992</v>
+        <v>246.2012718989993</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0071538326181</v>
+        <v>158.0071538326182</v>
       </c>
       <c r="H16" t="n">
-        <v>85.57913268839349</v>
+        <v>85.57913268839351</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2234082279186</v>
+        <v>120.2234082279187</v>
       </c>
       <c r="K16" t="n">
         <v>320.311455508008</v>
@@ -5458,13 +5458,13 @@
         <v>1832.298320439747</v>
       </c>
       <c r="R16" t="n">
-        <v>1790.110501196416</v>
+        <v>1790.110501196415</v>
       </c>
       <c r="S16" t="n">
         <v>1666.026386125673</v>
       </c>
       <c r="T16" t="n">
-        <v>1521.396324448162</v>
+        <v>1521.396324448161</v>
       </c>
       <c r="U16" t="n">
         <v>1312.487468187753</v>
@@ -5476,10 +5476,10 @@
         <v>928.8529033330005</v>
       </c>
       <c r="X16" t="n">
-        <v>781.0968991290304</v>
+        <v>781.0968991290306</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.5378666795477</v>
+        <v>640.537866679548</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1338.709817470403</v>
+        <v>1338.709817470404</v>
       </c>
       <c r="C17" t="n">
-        <v>1130.214393918086</v>
+        <v>1130.214393918087</v>
       </c>
       <c r="D17" t="n">
-        <v>932.4157886994309</v>
+        <v>932.4157886994317</v>
       </c>
       <c r="E17" t="n">
-        <v>707.0946294892816</v>
+        <v>707.0946294892823</v>
       </c>
       <c r="F17" t="n">
-        <v>456.575818087769</v>
+        <v>456.5758180877696</v>
       </c>
       <c r="G17" t="n">
-        <v>200.3545813302168</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J17" t="n">
-        <v>268.557630304025</v>
+        <v>151.2587276747086</v>
       </c>
       <c r="K17" t="n">
-        <v>721.8253333671894</v>
+        <v>604.5264307378729</v>
       </c>
       <c r="L17" t="n">
-        <v>922.9360248263353</v>
+        <v>805.6371221970187</v>
       </c>
       <c r="M17" t="n">
-        <v>1178.379856400473</v>
+        <v>1061.080953771157</v>
       </c>
       <c r="N17" t="n">
-        <v>1442.570844606618</v>
+        <v>1325.271941977301</v>
       </c>
       <c r="O17" t="n">
-        <v>1678.703641947811</v>
+        <v>1561.404739318494</v>
       </c>
       <c r="P17" t="n">
-        <v>2022.425618108812</v>
+        <v>2047.018338954669</v>
       </c>
       <c r="Q17" t="n">
-        <v>2309.879447798889</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R17" t="n">
-        <v>2334.472168644745</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S17" t="n">
-        <v>2334.472168644745</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T17" t="n">
-        <v>2281.887999758017</v>
+        <v>2281.887999758019</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.695346020697</v>
+        <v>2188.695346020699</v>
       </c>
       <c r="V17" t="n">
-        <v>2018.099552065221</v>
+        <v>2018.099552065223</v>
       </c>
       <c r="W17" t="n">
-        <v>1825.797990183202</v>
+        <v>2007.513467607133</v>
       </c>
       <c r="X17" t="n">
-        <v>1612.799325310217</v>
+        <v>1794.514802734148</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.1270867225</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>911.928407359629</v>
+        <v>714.3952222924256</v>
       </c>
       <c r="C18" t="n">
-        <v>737.475378078502</v>
+        <v>539.9421930112986</v>
       </c>
       <c r="D18" t="n">
-        <v>588.5409684172507</v>
+        <v>391.0077833500474</v>
       </c>
       <c r="E18" t="n">
-        <v>429.3035134117953</v>
+        <v>231.7703283445919</v>
       </c>
       <c r="F18" t="n">
-        <v>282.7689554386802</v>
+        <v>85.23577037147686</v>
       </c>
       <c r="G18" t="n">
-        <v>145.5412832555495</v>
+        <v>85.23577037147686</v>
       </c>
       <c r="H18" t="n">
-        <v>46.68944337289491</v>
+        <v>85.23577037147686</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J18" t="n">
         <v>185.1392358768292</v>
@@ -5598,46 +5598,46 @@
         <v>548.3928263393643</v>
       </c>
       <c r="L18" t="n">
-        <v>917.9910073910034</v>
+        <v>1098.23650328044</v>
       </c>
       <c r="M18" t="n">
-        <v>1150.563852458269</v>
+        <v>1330.809348347705</v>
       </c>
       <c r="N18" t="n">
-        <v>1403.700853608113</v>
+        <v>1583.946349497549</v>
       </c>
       <c r="O18" t="n">
-        <v>1613.051960134165</v>
+        <v>1793.297456023601</v>
       </c>
       <c r="P18" t="n">
-        <v>2077.019754551159</v>
+        <v>2077.01975455116</v>
       </c>
       <c r="Q18" t="n">
-        <v>2334.472168644745</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R18" t="n">
-        <v>2326.629995268225</v>
+        <v>2326.629995268226</v>
       </c>
       <c r="S18" t="n">
-        <v>2181.133062767422</v>
+        <v>2181.133062767423</v>
       </c>
       <c r="T18" t="n">
-        <v>2145.472323892701</v>
+        <v>2015.736549846387</v>
       </c>
       <c r="U18" t="n">
-        <v>1985.145008310128</v>
+        <v>1787.611823242925</v>
       </c>
       <c r="V18" t="n">
-        <v>1749.992900078385</v>
+        <v>1552.459715011182</v>
       </c>
       <c r="W18" t="n">
-        <v>1495.755543350184</v>
+        <v>1298.22235828298</v>
       </c>
       <c r="X18" t="n">
-        <v>1287.904043144651</v>
+        <v>1090.370858077448</v>
       </c>
       <c r="Y18" t="n">
-        <v>1080.143744379697</v>
+        <v>882.6105593124937</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>599.1868826801926</v>
+        <v>371.1038560309165</v>
       </c>
       <c r="C19" t="n">
-        <v>590.7177931403808</v>
+        <v>362.6347664911045</v>
       </c>
       <c r="D19" t="n">
-        <v>590.7177931403808</v>
+        <v>212.5181270787687</v>
       </c>
       <c r="E19" t="n">
-        <v>442.8046995579876</v>
+        <v>212.5181270787687</v>
       </c>
       <c r="F19" t="n">
-        <v>295.9147520600773</v>
+        <v>212.5181270787687</v>
       </c>
       <c r="G19" t="n">
-        <v>127.4870872996487</v>
+        <v>204.557555706435</v>
       </c>
       <c r="H19" t="n">
-        <v>51.89598786816288</v>
+        <v>51.8959878681629</v>
       </c>
       <c r="I19" t="n">
-        <v>51.89598786816288</v>
+        <v>51.8959878681629</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="K19" t="n">
         <v>168.1405915381483</v>
@@ -5686,7 +5686,7 @@
         <v>844.5778440496397</v>
       </c>
       <c r="O19" t="n">
-        <v>1043.495058868663</v>
+        <v>1043.495058868662</v>
       </c>
       <c r="P19" t="n">
         <v>1190.182417928197</v>
@@ -5698,25 +5698,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S19" t="n">
-        <v>1164.455493404177</v>
+        <v>1164.455493404176</v>
       </c>
       <c r="T19" t="n">
-        <v>1100.058978420713</v>
+        <v>1032.443045159532</v>
       </c>
       <c r="U19" t="n">
-        <v>971.3836688543523</v>
+        <v>903.7677355931717</v>
       </c>
       <c r="V19" t="n">
-        <v>877.1662740365605</v>
+        <v>809.5503407753797</v>
       </c>
       <c r="W19" t="n">
-        <v>748.2161973876948</v>
+        <v>680.6002641265139</v>
       </c>
       <c r="X19" t="n">
-        <v>680.6937398777725</v>
+        <v>452.6107132284966</v>
       </c>
       <c r="Y19" t="n">
-        <v>620.3682541223374</v>
+        <v>392.2852274730614</v>
       </c>
     </row>
     <row r="20">
@@ -5732,70 +5732,70 @@
         <v>1130.214393918087</v>
       </c>
       <c r="D20" t="n">
-        <v>932.4157886994313</v>
+        <v>932.4157886994317</v>
       </c>
       <c r="E20" t="n">
-        <v>707.0946294892821</v>
+        <v>707.0946294892824</v>
       </c>
       <c r="F20" t="n">
-        <v>456.5758180877694</v>
+        <v>456.5758180877697</v>
       </c>
       <c r="G20" t="n">
-        <v>200.3545813302168</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="J20" t="n">
-        <v>126.6660068288512</v>
+        <v>151.2587276747104</v>
       </c>
       <c r="K20" t="n">
-        <v>579.9337098920156</v>
+        <v>604.5264307378748</v>
       </c>
       <c r="L20" t="n">
-        <v>781.0444013511615</v>
+        <v>805.6371221970205</v>
       </c>
       <c r="M20" t="n">
-        <v>1036.4882329253</v>
+        <v>1061.080953771159</v>
       </c>
       <c r="N20" t="n">
-        <v>1300.679221131444</v>
+        <v>1325.271941977303</v>
       </c>
       <c r="O20" t="n">
-        <v>1536.812018472637</v>
+        <v>1561.404739318496</v>
       </c>
       <c r="P20" t="n">
-        <v>2022.425618108812</v>
+        <v>2047.018338954671</v>
       </c>
       <c r="Q20" t="n">
-        <v>2309.879447798889</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="R20" t="n">
-        <v>2334.472168644745</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="S20" t="n">
-        <v>2334.472168644745</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="T20" t="n">
-        <v>2334.472168644745</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="U20" t="n">
-        <v>2241.279514907425</v>
+        <v>2241.279514907428</v>
       </c>
       <c r="V20" t="n">
-        <v>2070.68372095195</v>
+        <v>2199.815029489152</v>
       </c>
       <c r="W20" t="n">
-        <v>1878.382159069931</v>
+        <v>2007.513467607133</v>
       </c>
       <c r="X20" t="n">
-        <v>1665.383494196946</v>
+        <v>1794.514802734148</v>
       </c>
       <c r="Y20" t="n">
-        <v>1564.84256414643</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>683.6639029506441</v>
+        <v>774.7007351764984</v>
       </c>
       <c r="C21" t="n">
-        <v>509.2108736695171</v>
+        <v>600.2477058953714</v>
       </c>
       <c r="D21" t="n">
-        <v>360.2764640082659</v>
+        <v>451.3132962341201</v>
       </c>
       <c r="E21" t="n">
-        <v>201.0390090028104</v>
+        <v>292.0758412286646</v>
       </c>
       <c r="F21" t="n">
-        <v>54.50445102969533</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="G21" t="n">
-        <v>46.68944337289491</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H21" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="J21" t="n">
         <v>185.1392358768292</v>
@@ -5835,46 +5835,46 @@
         <v>548.3928263393643</v>
       </c>
       <c r="L21" t="n">
-        <v>731.1045614300152</v>
+        <v>780.7585055771872</v>
       </c>
       <c r="M21" t="n">
-        <v>963.6774064972806</v>
+        <v>1358.540367316762</v>
       </c>
       <c r="N21" t="n">
-        <v>1216.814407647125</v>
+        <v>1611.677368466606</v>
       </c>
       <c r="O21" t="n">
-        <v>1613.051960134165</v>
+        <v>1821.028474992658</v>
       </c>
       <c r="P21" t="n">
-        <v>2077.019754551159</v>
+        <v>2284.996269409652</v>
       </c>
       <c r="Q21" t="n">
-        <v>2334.472168644745</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="R21" t="n">
-        <v>2326.629995268225</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="S21" t="n">
-        <v>2181.133062767422</v>
+        <v>2188.975236143945</v>
       </c>
       <c r="T21" t="n">
-        <v>1985.005230504606</v>
+        <v>2076.04206273046</v>
       </c>
       <c r="U21" t="n">
-        <v>1756.880503901143</v>
+        <v>1847.917336126997</v>
       </c>
       <c r="V21" t="n">
-        <v>1521.7283956694</v>
+        <v>1612.765227895255</v>
       </c>
       <c r="W21" t="n">
-        <v>1267.491038941199</v>
+        <v>1358.527871167053</v>
       </c>
       <c r="X21" t="n">
-        <v>1059.639538735666</v>
+        <v>1150.67637096152</v>
       </c>
       <c r="Y21" t="n">
-        <v>851.8792399707122</v>
+        <v>942.9160721965663</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.3256487803084</v>
+        <v>523.595783248707</v>
       </c>
       <c r="C22" t="n">
-        <v>59.85655924049647</v>
+        <v>354.6596003208001</v>
       </c>
       <c r="D22" t="n">
-        <v>59.85655924049647</v>
+        <v>354.6596003208001</v>
       </c>
       <c r="E22" t="n">
-        <v>59.85655924049647</v>
+        <v>206.746506738407</v>
       </c>
       <c r="F22" t="n">
-        <v>59.85655924049647</v>
+        <v>59.85655924049665</v>
       </c>
       <c r="G22" t="n">
-        <v>51.89598786816288</v>
+        <v>51.89598786816294</v>
       </c>
       <c r="H22" t="n">
-        <v>51.89598786816288</v>
+        <v>51.89598786816294</v>
       </c>
       <c r="I22" t="n">
-        <v>51.89598786816288</v>
+        <v>51.89598786816294</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="K22" t="n">
-        <v>168.1405915381483</v>
+        <v>168.1405915381484</v>
       </c>
       <c r="L22" t="n">
         <v>379.0826816258174</v>
       </c>
       <c r="M22" t="n">
-        <v>611.880662454317</v>
+        <v>611.8806624543171</v>
       </c>
       <c r="N22" t="n">
-        <v>844.5778440496397</v>
+        <v>844.5778440496398</v>
       </c>
       <c r="O22" t="n">
         <v>1043.495058868663</v>
@@ -5932,28 +5932,28 @@
         <v>1208.306061780872</v>
       </c>
       <c r="R22" t="n">
-        <v>1085.884695843493</v>
+        <v>1208.306061780872</v>
       </c>
       <c r="S22" t="n">
-        <v>881.567034078703</v>
+        <v>1164.455493404176</v>
       </c>
       <c r="T22" t="n">
-        <v>729.6648379089235</v>
+        <v>1100.058978420712</v>
       </c>
       <c r="U22" t="n">
-        <v>600.9895283425631</v>
+        <v>971.383668854352</v>
       </c>
       <c r="V22" t="n">
-        <v>346.3050401366762</v>
+        <v>877.16627403656</v>
       </c>
       <c r="W22" t="n">
-        <v>217.3549634878106</v>
+        <v>748.2161973876943</v>
       </c>
       <c r="X22" t="n">
-        <v>149.8325059778882</v>
+        <v>680.6937398777718</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.50702022245312</v>
+        <v>620.3682541223366</v>
       </c>
     </row>
     <row r="23">
@@ -5969,70 +5969,70 @@
         <v>1133.922873049188</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305324</v>
+        <v>936.1242678305326</v>
       </c>
       <c r="E23" t="n">
-        <v>710.8031086203831</v>
+        <v>710.8031086203832</v>
       </c>
       <c r="F23" t="n">
         <v>460.2842972188705</v>
       </c>
       <c r="G23" t="n">
-        <v>204.0630604613174</v>
+        <v>204.0630604613175</v>
       </c>
       <c r="H23" t="n">
-        <v>50.39792250399551</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="I23" t="n">
-        <v>50.39792250399551</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="J23" t="n">
         <v>272.2661094351256</v>
       </c>
       <c r="K23" t="n">
-        <v>545.7550439502295</v>
+        <v>725.53381249829</v>
       </c>
       <c r="L23" t="n">
-        <v>1160.350337814321</v>
+        <v>926.6445039574357</v>
       </c>
       <c r="M23" t="n">
-        <v>1415.79416938846</v>
+        <v>1182.088335531574</v>
       </c>
       <c r="N23" t="n">
-        <v>2039.468460375404</v>
+        <v>1446.279323737718</v>
       </c>
       <c r="O23" t="n">
-        <v>2275.601257716597</v>
+        <v>1722.235975027668</v>
       </c>
       <c r="P23" t="n">
-        <v>2442.634136263004</v>
+        <v>2207.849574663843</v>
       </c>
       <c r="Q23" t="n">
-        <v>2519.896125199775</v>
+        <v>2495.30340435392</v>
       </c>
       <c r="R23" t="n">
-        <v>2519.896125199775</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="S23" t="n">
-        <v>2519.896125199775</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="T23" t="n">
-        <v>2467.311956313048</v>
+        <v>2467.311956313049</v>
       </c>
       <c r="U23" t="n">
-        <v>2374.119302575728</v>
+        <v>2374.119302575729</v>
       </c>
       <c r="V23" t="n">
-        <v>2203.523508620252</v>
+        <v>2203.523508620253</v>
       </c>
       <c r="W23" t="n">
-        <v>2011.221946738233</v>
+        <v>2011.221946738234</v>
       </c>
       <c r="X23" t="n">
-        <v>1798.223281865248</v>
+        <v>1798.223281865249</v>
       </c>
       <c r="Y23" t="n">
-        <v>1568.551043277531</v>
+        <v>1568.551043277532</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>876.9300328821944</v>
+        <v>954.1832134893117</v>
       </c>
       <c r="C24" t="n">
-        <v>702.4770036010674</v>
+        <v>779.7301842081847</v>
       </c>
       <c r="D24" t="n">
-        <v>553.5425939398161</v>
+        <v>630.7957745469334</v>
       </c>
       <c r="E24" t="n">
-        <v>394.3051389343606</v>
+        <v>471.5583195414779</v>
       </c>
       <c r="F24" t="n">
-        <v>247.7705809612456</v>
+        <v>325.0237615683628</v>
       </c>
       <c r="G24" t="n">
-        <v>110.5429087781148</v>
+        <v>187.796089385232</v>
       </c>
       <c r="H24" t="n">
-        <v>50.39792250399551</v>
+        <v>88.94424950257746</v>
       </c>
       <c r="I24" t="n">
-        <v>50.39792250399551</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="J24" t="n">
-        <v>188.8477150079298</v>
+        <v>64.01759002092503</v>
       </c>
       <c r="K24" t="n">
-        <v>552.1013054704649</v>
+        <v>427.2711804834602</v>
       </c>
       <c r="L24" t="n">
-        <v>1101.94498241154</v>
+        <v>977.1148574245356</v>
       </c>
       <c r="M24" t="n">
-        <v>1334.517827478806</v>
+        <v>1209.687702491801</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.65482862865</v>
+        <v>1462.824703641645</v>
       </c>
       <c r="O24" t="n">
-        <v>2006.452431547685</v>
+        <v>2062.099506251659</v>
       </c>
       <c r="P24" t="n">
         <v>2470.42022596468</v>
       </c>
       <c r="Q24" t="n">
-        <v>2519.896125199775</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="R24" t="n">
-        <v>2519.896125199775</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="S24" t="n">
-        <v>2374.399192698972</v>
+        <v>2451.652373306089</v>
       </c>
       <c r="T24" t="n">
-        <v>2178.271360436156</v>
+        <v>2255.524541043273</v>
       </c>
       <c r="U24" t="n">
-        <v>1950.146633832693</v>
+        <v>2027.399814439811</v>
       </c>
       <c r="V24" t="n">
-        <v>1714.994525600951</v>
+        <v>1792.247706208068</v>
       </c>
       <c r="W24" t="n">
-        <v>1460.757168872749</v>
+        <v>1538.010349479866</v>
       </c>
       <c r="X24" t="n">
-        <v>1252.905668667216</v>
+        <v>1330.158849274334</v>
       </c>
       <c r="Y24" t="n">
-        <v>1045.145369902262</v>
+        <v>1122.39855050938</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.4940816470082</v>
+        <v>72.03412791140926</v>
       </c>
       <c r="C25" t="n">
-        <v>113.0249921071963</v>
+        <v>63.56503837159721</v>
       </c>
       <c r="D25" t="n">
-        <v>113.0249921071963</v>
+        <v>63.56503837159721</v>
       </c>
       <c r="E25" t="n">
-        <v>113.0249921071963</v>
+        <v>63.56503837159721</v>
       </c>
       <c r="F25" t="n">
-        <v>113.0249921071963</v>
+        <v>63.56503837159721</v>
       </c>
       <c r="G25" t="n">
-        <v>105.0644207348627</v>
+        <v>55.60446699926351</v>
       </c>
       <c r="H25" t="n">
-        <v>55.60446699926348</v>
+        <v>55.60446699926351</v>
       </c>
       <c r="I25" t="n">
-        <v>55.60446699926348</v>
+        <v>55.60446699926351</v>
       </c>
       <c r="J25" t="n">
-        <v>50.39792250399551</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="K25" t="n">
         <v>171.8490706692489</v>
@@ -6175,22 +6175,22 @@
         <v>1007.696879147182</v>
       </c>
       <c r="T25" t="n">
-        <v>782.8332707756233</v>
+        <v>893.8404104281198</v>
       </c>
       <c r="U25" t="n">
-        <v>493.6908678211679</v>
+        <v>765.1651008617592</v>
       </c>
       <c r="V25" t="n">
-        <v>399.473473003376</v>
+        <v>510.4806126558724</v>
       </c>
       <c r="W25" t="n">
-        <v>270.5233963545104</v>
+        <v>221.0634426189118</v>
       </c>
       <c r="X25" t="n">
-        <v>203.0009388445881</v>
+        <v>153.5409851089893</v>
       </c>
       <c r="Y25" t="n">
-        <v>142.6754530891529</v>
+        <v>93.21549935355409</v>
       </c>
     </row>
     <row r="26">
@@ -6218,43 +6218,43 @@
         <v>331.498512550831</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946162</v>
+        <v>97.5998278994617</v>
       </c>
       <c r="I26" t="n">
-        <v>73.54026249367037</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J26" t="n">
-        <v>295.4084494248005</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K26" t="n">
-        <v>748.6761524879649</v>
+        <v>464.1978715032637</v>
       </c>
       <c r="L26" t="n">
-        <v>1363.271446352057</v>
+        <v>1078.793165367355</v>
       </c>
       <c r="M26" t="n">
-        <v>2063.733676084099</v>
+        <v>1779.255395099398</v>
       </c>
       <c r="N26" t="n">
-        <v>2760.898119458108</v>
+        <v>2476.419838473406</v>
       </c>
       <c r="O26" t="n">
-        <v>3374.023096249419</v>
+        <v>3089.544815264717</v>
       </c>
       <c r="P26" t="n">
-        <v>3541.055974795826</v>
+        <v>3575.158414900892</v>
       </c>
       <c r="Q26" t="n">
-        <v>3652.420403837662</v>
+        <v>3652.420403837663</v>
       </c>
       <c r="R26" t="n">
         <v>3677.013124683519</v>
       </c>
       <c r="S26" t="n">
-        <v>3610.134137617858</v>
+        <v>3610.134137617859</v>
       </c>
       <c r="T26" t="n">
-        <v>3477.316422037083</v>
+        <v>3477.316422037084</v>
       </c>
       <c r="U26" t="n">
         <v>3303.890221605716</v>
@@ -6300,7 +6300,7 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I27" t="n">
-        <v>73.54026249367037</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J27" t="n">
         <v>211.9900549976047</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641316</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C28" t="n">
-        <v>477.2711314302721</v>
+        <v>477.2711314302717</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3880387119839</v>
+        <v>407.3880387119834</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7084918236383</v>
+        <v>339.7084918236378</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197754</v>
+        <v>273.0520910197748</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533943</v>
+        <v>184.8579729533936</v>
       </c>
       <c r="H28" t="n">
-        <v>112.4299518091698</v>
+        <v>112.429951809169</v>
       </c>
       <c r="I28" t="n">
-        <v>73.54026249367037</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J28" t="n">
         <v>147.0742273486941</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287835</v>
+        <v>347.1622746287834</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312884</v>
+        <v>636.7412638312883</v>
       </c>
       <c r="M28" t="n">
-        <v>948.1761437746239</v>
+        <v>948.1761437746238</v>
       </c>
       <c r="N28" t="n">
         <v>1259.510224484782</v>
@@ -6418,16 +6418,16 @@
         <v>1339.338287308529</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.88734579669</v>
+        <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7037224537763</v>
+        <v>955.703722453776</v>
       </c>
       <c r="X28" t="n">
-        <v>807.9477182498065</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.3886858003239</v>
+        <v>667.3886858003234</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>1871.021482161256</v>
       </c>
       <c r="C29" t="n">
-        <v>1582.292511914891</v>
+        <v>1582.292511914892</v>
       </c>
       <c r="D29" t="n">
         <v>1304.260360002188</v>
       </c>
       <c r="E29" t="n">
-        <v>998.7056540979913</v>
+        <v>998.7056540979918</v>
       </c>
       <c r="F29" t="n">
-        <v>667.9532960024312</v>
+        <v>667.9532960024317</v>
       </c>
       <c r="G29" t="n">
-        <v>331.498512550831</v>
+        <v>331.4985125508315</v>
       </c>
       <c r="H29" t="n">
-        <v>97.59982789946164</v>
+        <v>97.59982789946166</v>
       </c>
       <c r="I29" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J29" t="n">
         <v>128.0028004044475</v>
       </c>
       <c r="K29" t="n">
-        <v>581.2705034676119</v>
+        <v>464.1978715032624</v>
       </c>
       <c r="L29" t="n">
-        <v>1195.865797331704</v>
+        <v>1078.793165367354</v>
       </c>
       <c r="M29" t="n">
-        <v>1896.328027063746</v>
+        <v>1779.255395099397</v>
       </c>
       <c r="N29" t="n">
-        <v>2593.492470437755</v>
+        <v>2476.419838473405</v>
       </c>
       <c r="O29" t="n">
-        <v>3206.617447229066</v>
+        <v>3089.544815264716</v>
       </c>
       <c r="P29" t="n">
-        <v>3389.559294993442</v>
+        <v>3575.158414900891</v>
       </c>
       <c r="Q29" t="n">
-        <v>3677.013124683519</v>
+        <v>3652.420403837663</v>
       </c>
       <c r="R29" t="n">
         <v>3677.013124683519</v>
@@ -6503,7 +6503,7 @@
         <v>2780.525772380127</v>
       </c>
       <c r="X29" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813094</v>
       </c>
       <c r="Y29" t="n">
         <v>2177.38777553133</v>
@@ -6537,7 +6537,7 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I30" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J30" t="n">
         <v>211.9900549976047</v>
@@ -6552,7 +6552,7 @@
         <v>1357.660167468481</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.362504136455</v>
+        <v>1610.797168618325</v>
       </c>
       <c r="O30" t="n">
         <v>1906.713610662506</v>
@@ -6607,61 +6607,61 @@
         <v>339.7084918236376</v>
       </c>
       <c r="F31" t="n">
-        <v>273.0520910197748</v>
+        <v>273.0520910197747</v>
       </c>
       <c r="G31" t="n">
-        <v>184.8579729533936</v>
+        <v>184.8579729533935</v>
       </c>
       <c r="H31" t="n">
         <v>112.429951809169</v>
       </c>
       <c r="I31" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J31" t="n">
-        <v>147.0742273486942</v>
+        <v>147.0742273486941</v>
       </c>
       <c r="K31" t="n">
-        <v>347.1622746287835</v>
+        <v>347.1622746287833</v>
       </c>
       <c r="L31" t="n">
-        <v>636.7412638312885</v>
+        <v>636.7412638312883</v>
       </c>
       <c r="M31" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746238</v>
       </c>
       <c r="N31" t="n">
-        <v>1259.510224484783</v>
+        <v>1259.510224484782</v>
       </c>
       <c r="O31" t="n">
         <v>1537.064338418641</v>
       </c>
       <c r="P31" t="n">
-        <v>1762.38859659301</v>
+        <v>1762.388596593011</v>
       </c>
       <c r="Q31" t="n">
-        <v>1859.149139560521</v>
+        <v>1859.149139560522</v>
       </c>
       <c r="R31" t="n">
-        <v>1816.96132031719</v>
+        <v>1816.961320317191</v>
       </c>
       <c r="S31" t="n">
-        <v>1692.877205246447</v>
+        <v>1692.877205246448</v>
       </c>
       <c r="T31" t="n">
-        <v>1548.247143568936</v>
+        <v>1548.247143568937</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.338287308528</v>
+        <v>1339.338287308529</v>
       </c>
       <c r="V31" t="n">
         <v>1164.887345796689</v>
       </c>
       <c r="W31" t="n">
-        <v>955.7037224537758</v>
+        <v>955.7037224537761</v>
       </c>
       <c r="X31" t="n">
-        <v>807.9477182498059</v>
+        <v>807.9477182498063</v>
       </c>
       <c r="Y31" t="n">
         <v>667.3886858003233</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1871.021482161256</v>
+        <v>1871.021482161255</v>
       </c>
       <c r="C32" t="n">
-        <v>1582.292511914892</v>
+        <v>1582.292511914891</v>
       </c>
       <c r="D32" t="n">
-        <v>1304.260360002189</v>
+        <v>1304.260360002188</v>
       </c>
       <c r="E32" t="n">
-        <v>998.7056540979922</v>
+        <v>998.7056540979916</v>
       </c>
       <c r="F32" t="n">
-        <v>667.9532960024321</v>
+        <v>667.9532960024314</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4985125508319</v>
+        <v>331.498512550831</v>
       </c>
       <c r="H32" t="n">
-        <v>97.5998278994617</v>
+        <v>97.59982789946162</v>
       </c>
       <c r="I32" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J32" t="n">
-        <v>295.4084494248005</v>
+        <v>128.0028004044474</v>
       </c>
       <c r="K32" t="n">
-        <v>748.6761524879649</v>
+        <v>581.2705034676118</v>
       </c>
       <c r="L32" t="n">
-        <v>1363.271446352057</v>
+        <v>1195.865797331704</v>
       </c>
       <c r="M32" t="n">
-        <v>2002.037009513956</v>
+        <v>1896.328027063746</v>
       </c>
       <c r="N32" t="n">
-        <v>2266.227997720101</v>
+        <v>2593.492470437754</v>
       </c>
       <c r="O32" t="n">
-        <v>2879.352974511412</v>
+        <v>3206.617447229065</v>
       </c>
       <c r="P32" t="n">
-        <v>3364.966574147586</v>
+        <v>3599.751135746747</v>
       </c>
       <c r="Q32" t="n">
-        <v>3652.420403837664</v>
+        <v>3677.013124683519</v>
       </c>
       <c r="R32" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683519</v>
       </c>
       <c r="S32" t="n">
         <v>3610.134137617859</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.316422037085</v>
+        <v>3477.316422037084</v>
       </c>
       <c r="U32" t="n">
-        <v>3303.890221605718</v>
+        <v>3303.890221605716</v>
       </c>
       <c r="V32" t="n">
-        <v>3053.060880956195</v>
+        <v>3053.060880956193</v>
       </c>
       <c r="W32" t="n">
-        <v>2780.525772380128</v>
+        <v>2780.525772380126</v>
       </c>
       <c r="X32" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813094</v>
       </c>
       <c r="Y32" t="n">
-        <v>2177.387775531331</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6774,10 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I33" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J33" t="n">
-        <v>211.9900549976047</v>
+        <v>211.9900549976046</v>
       </c>
       <c r="K33" t="n">
         <v>575.2436454601398</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641314</v>
+        <v>565.9737676641307</v>
       </c>
       <c r="C34" t="n">
-        <v>477.2711314302719</v>
+        <v>477.2711314302713</v>
       </c>
       <c r="D34" t="n">
-        <v>407.3880387119835</v>
+        <v>407.3880387119831</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236378</v>
+        <v>339.7084918236375</v>
       </c>
       <c r="F34" t="n">
-        <v>273.0520910197749</v>
+        <v>273.0520910197747</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533937</v>
+        <v>184.8579729533936</v>
       </c>
       <c r="H34" t="n">
-        <v>112.429951809169</v>
+        <v>112.4299518091689</v>
       </c>
       <c r="I34" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J34" t="n">
-        <v>147.0742273486941</v>
+        <v>147.0742273486925</v>
       </c>
       <c r="K34" t="n">
-        <v>347.1622746287834</v>
+        <v>347.1622746287819</v>
       </c>
       <c r="L34" t="n">
-        <v>636.7412638312884</v>
+        <v>636.7412638312869</v>
       </c>
       <c r="M34" t="n">
-        <v>948.1761437746239</v>
+        <v>948.1761437746225</v>
       </c>
       <c r="N34" t="n">
-        <v>1259.510224484783</v>
+        <v>1259.510224484781</v>
       </c>
       <c r="O34" t="n">
-        <v>1537.064338418641</v>
+        <v>1537.06433841864</v>
       </c>
       <c r="P34" t="n">
-        <v>1762.388596593011</v>
+        <v>1762.38859659301</v>
       </c>
       <c r="Q34" t="n">
-        <v>1859.149139560522</v>
+        <v>1859.149139560521</v>
       </c>
       <c r="R34" t="n">
-        <v>1816.961320317191</v>
+        <v>1816.96132031719</v>
       </c>
       <c r="S34" t="n">
-        <v>1692.877205246448</v>
+        <v>1692.877205246447</v>
       </c>
       <c r="T34" t="n">
-        <v>1548.247143568937</v>
+        <v>1548.247143568936</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.338287308529</v>
+        <v>1339.338287308528</v>
       </c>
       <c r="V34" t="n">
         <v>1164.887345796689</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7037224537762</v>
+        <v>955.7037224537754</v>
       </c>
       <c r="X34" t="n">
-        <v>807.9477182498065</v>
+        <v>807.9477182498056</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003237</v>
+        <v>667.3886858003229</v>
       </c>
     </row>
     <row r="35">
@@ -6941,22 +6941,22 @@
         <v>729.0768589303111</v>
       </c>
       <c r="L35" t="n">
-        <v>930.187550389457</v>
+        <v>930.1875503894569</v>
       </c>
       <c r="M35" t="n">
         <v>1185.631381963595</v>
       </c>
       <c r="N35" t="n">
-        <v>1449.82237016974</v>
+        <v>1449.822370169739</v>
       </c>
       <c r="O35" t="n">
-        <v>1899.388296628722</v>
+        <v>2062.94734696105</v>
       </c>
       <c r="P35" t="n">
-        <v>2385.001896264897</v>
+        <v>2548.560946597225</v>
       </c>
       <c r="Q35" t="n">
-        <v>2672.455725954974</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="R35" t="n">
         <v>2697.04844680083</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>205.3768636968011</v>
+        <v>106.4334486588142</v>
       </c>
       <c r="C37" t="n">
-        <v>89.81634398588304</v>
+        <v>84.60979949061507</v>
       </c>
       <c r="D37" t="n">
-        <v>86.81223833325508</v>
+        <v>81.60569383798712</v>
       </c>
       <c r="E37" t="n">
-        <v>86.01167851056974</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="F37" t="n">
-        <v>86.01167851056974</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="G37" t="n">
-        <v>64.69654750984894</v>
+        <v>59.49000301458097</v>
       </c>
       <c r="H37" t="n">
-        <v>59.14751343128458</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I37" t="n">
-        <v>59.14751343128458</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J37" t="n">
         <v>53.94096893601661</v>
@@ -7117,28 +7117,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R37" t="n">
-        <v>1215.557587343994</v>
+        <v>1093.136221406615</v>
       </c>
       <c r="S37" t="n">
-        <v>1011.239925579203</v>
+        <v>888.8185596418248</v>
       </c>
       <c r="T37" t="n">
-        <v>933.4888509673523</v>
+        <v>687.4329021696576</v>
       </c>
       <c r="U37" t="n">
-        <v>791.4589817726046</v>
+        <v>545.40303297491</v>
       </c>
       <c r="V37" t="n">
-        <v>683.8870273264255</v>
+        <v>437.8310785287309</v>
       </c>
       <c r="W37" t="n">
-        <v>541.5823910491727</v>
+        <v>295.526442251478</v>
       </c>
       <c r="X37" t="n">
-        <v>460.7053739108631</v>
+        <v>214.6494251131685</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.912794767333</v>
+        <v>140.9693797293461</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1204.238717623144</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761011</v>
+        <v>993.0855527761015</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375646</v>
+        <v>754.4098339375651</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5364629076648</v>
+        <v>490.5364629076653</v>
       </c>
       <c r="G38" t="n">
         <v>220.9606665217257</v>
@@ -7172,28 +7172,28 @@
         <v>53.94096893601659</v>
       </c>
       <c r="J38" t="n">
-        <v>275.8091558671467</v>
+        <v>108.4035068467936</v>
       </c>
       <c r="K38" t="n">
-        <v>729.0768589303111</v>
+        <v>561.671209909958</v>
       </c>
       <c r="L38" t="n">
-        <v>930.187550389457</v>
+        <v>1176.26650377405</v>
       </c>
       <c r="M38" t="n">
-        <v>1399.064511081384</v>
+        <v>1431.710335348188</v>
       </c>
       <c r="N38" t="n">
-        <v>1663.255499287528</v>
+        <v>2099.229825931393</v>
       </c>
       <c r="O38" t="n">
-        <v>1899.388296628721</v>
+        <v>2452.753579317651</v>
       </c>
       <c r="P38" t="n">
-        <v>2385.001896264896</v>
+        <v>2619.786457864058</v>
       </c>
       <c r="Q38" t="n">
-        <v>2672.455725954973</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R38" t="n">
         <v>2697.048446800829</v>
@@ -7202,7 +7202,7 @@
         <v>2697.048446800829</v>
       </c>
       <c r="T38" t="n">
-        <v>2631.109718285714</v>
+        <v>2631.109718285715</v>
       </c>
       <c r="U38" t="n">
         <v>2524.562504920007</v>
@@ -7245,28 +7245,28 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H39" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I39" t="n">
         <v>53.94096893601659</v>
       </c>
       <c r="J39" t="n">
-        <v>192.3907614399509</v>
+        <v>192.3907614399508</v>
       </c>
       <c r="K39" t="n">
-        <v>555.6443519024861</v>
+        <v>522.5411828582147</v>
       </c>
       <c r="L39" t="n">
-        <v>1105.488028843562</v>
+        <v>1072.38485979929</v>
       </c>
       <c r="M39" t="n">
-        <v>1338.060873910827</v>
+        <v>1739.904350382496</v>
       </c>
       <c r="N39" t="n">
-        <v>1591.197875060671</v>
+        <v>1993.04135153234</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.114317104853</v>
+        <v>2202.392458058391</v>
       </c>
       <c r="P39" t="n">
         <v>2351.082111521847</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>499.6019312162165</v>
+        <v>205.3768636968011</v>
       </c>
       <c r="C40" t="n">
-        <v>477.7782820480174</v>
+        <v>183.5532145286019</v>
       </c>
       <c r="D40" t="n">
-        <v>327.6616426356817</v>
+        <v>180.549108875974</v>
       </c>
       <c r="E40" t="n">
-        <v>179.7485490532886</v>
+        <v>179.7485490532887</v>
       </c>
       <c r="F40" t="n">
-        <v>179.7485490532886</v>
+        <v>179.7485490532887</v>
       </c>
       <c r="G40" t="n">
-        <v>64.69654750984893</v>
+        <v>158.4334180525678</v>
       </c>
       <c r="H40" t="n">
-        <v>59.14751343128456</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I40" t="n">
-        <v>59.14751343128456</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J40" t="n">
         <v>53.94096893601659</v>
@@ -7336,7 +7336,7 @@
         <v>175.39211710127</v>
       </c>
       <c r="L40" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M40" t="n">
         <v>619.1321880174387</v>
@@ -7357,25 +7357,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S40" t="n">
-        <v>1158.352459338911</v>
+        <v>1011.239925579203</v>
       </c>
       <c r="T40" t="n">
-        <v>1080.60138472706</v>
+        <v>786.3763172076444</v>
       </c>
       <c r="U40" t="n">
-        <v>938.5715155323123</v>
+        <v>644.3464480128969</v>
       </c>
       <c r="V40" t="n">
-        <v>830.9995610861332</v>
+        <v>536.7744935667178</v>
       </c>
       <c r="W40" t="n">
-        <v>688.6949248088804</v>
+        <v>394.4698572894649</v>
       </c>
       <c r="X40" t="n">
-        <v>607.8179076705708</v>
+        <v>313.5928401511554</v>
       </c>
       <c r="Y40" t="n">
-        <v>534.1378622867485</v>
+        <v>239.912794767333</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1426.088700803848</v>
+        <v>1426.088700803849</v>
       </c>
       <c r="C41" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761016</v>
+        <v>993.0855527761026</v>
       </c>
       <c r="E41" t="n">
-        <v>754.4098339375655</v>
+        <v>754.4098339375663</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076657</v>
+        <v>490.5364629076666</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217256</v>
       </c>
       <c r="H41" t="n">
         <v>53.94096893601659</v>
@@ -7409,28 +7409,28 @@
         <v>53.94096893601659</v>
       </c>
       <c r="J41" t="n">
-        <v>275.8091558671467</v>
+        <v>108.4035068467936</v>
       </c>
       <c r="K41" t="n">
-        <v>729.0768589303111</v>
+        <v>240.7672514645049</v>
       </c>
       <c r="L41" t="n">
-        <v>930.187550389457</v>
+        <v>855.3625453285966</v>
       </c>
       <c r="M41" t="n">
-        <v>1185.631381963595</v>
+        <v>1110.806376902735</v>
       </c>
       <c r="N41" t="n">
-        <v>1449.82237016974</v>
+        <v>1687.848220133385</v>
       </c>
       <c r="O41" t="n">
-        <v>1899.388296628721</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P41" t="n">
-        <v>2385.001896264896</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q41" t="n">
-        <v>2672.455725954973</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R41" t="n">
         <v>2697.048446800829</v>
@@ -7454,7 +7454,7 @@
         <v>1908.602805324366</v>
       </c>
       <c r="Y41" t="n">
-        <v>1665.576007108262</v>
+        <v>1665.576007108263</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H42" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I42" t="n">
         <v>53.94096893601659</v>
       </c>
       <c r="J42" t="n">
-        <v>192.3907614399509</v>
+        <v>67.5606364529461</v>
       </c>
       <c r="K42" t="n">
-        <v>555.6443519024861</v>
+        <v>430.8142269154812</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.488028843562</v>
+        <v>980.6579038565567</v>
       </c>
       <c r="M42" t="n">
-        <v>1424.626209428958</v>
+        <v>1242.679028203486</v>
       </c>
       <c r="N42" t="n">
-        <v>1677.763210578802</v>
+        <v>1495.81602935333</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.114317104853</v>
+        <v>2095.090831963344</v>
       </c>
       <c r="P42" t="n">
-        <v>2351.082111521847</v>
+        <v>2559.058626380338</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.534525615434</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>499.6019312162165</v>
+        <v>205.376863696802</v>
       </c>
       <c r="C43" t="n">
-        <v>477.7782820480174</v>
+        <v>183.553214528603</v>
       </c>
       <c r="D43" t="n">
-        <v>380.8147195908732</v>
+        <v>180.5491088759752</v>
       </c>
       <c r="E43" t="n">
-        <v>232.9016260084801</v>
+        <v>179.74854905329</v>
       </c>
       <c r="F43" t="n">
-        <v>86.01167851056974</v>
+        <v>179.74854905329</v>
       </c>
       <c r="G43" t="n">
-        <v>64.69654750984893</v>
+        <v>158.4334180525694</v>
       </c>
       <c r="H43" t="n">
-        <v>59.14751343128456</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I43" t="n">
-        <v>59.14751343128456</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J43" t="n">
         <v>53.94096893601659</v>
@@ -7573,7 +7573,7 @@
         <v>175.39211710127</v>
       </c>
       <c r="L43" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M43" t="n">
         <v>619.1321880174387</v>
@@ -7600,19 +7600,19 @@
         <v>1080.60138472706</v>
       </c>
       <c r="U43" t="n">
-        <v>938.5715155323123</v>
+        <v>791.4589817726049</v>
       </c>
       <c r="V43" t="n">
-        <v>830.9995610861332</v>
+        <v>536.7744935667181</v>
       </c>
       <c r="W43" t="n">
-        <v>688.6949248088804</v>
+        <v>394.4698572894654</v>
       </c>
       <c r="X43" t="n">
-        <v>607.8179076705708</v>
+        <v>313.5928401511559</v>
       </c>
       <c r="Y43" t="n">
-        <v>534.1378622867485</v>
+        <v>239.9127947673338</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1426.088700803848</v>
+        <v>1426.088700803847</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623143</v>
       </c>
       <c r="D44" t="n">
-        <v>993.0855527761014</v>
+        <v>993.0855527761007</v>
       </c>
       <c r="E44" t="n">
         <v>754.4098339375648</v>
@@ -7637,52 +7637,52 @@
         <v>490.5364629076651</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217255</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601656</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601656</v>
       </c>
       <c r="J44" t="n">
-        <v>275.8091558671467</v>
+        <v>108.4035068467936</v>
       </c>
       <c r="K44" t="n">
-        <v>729.0768589303111</v>
+        <v>561.671209909958</v>
       </c>
       <c r="L44" t="n">
-        <v>930.187550389457</v>
+        <v>1176.26650377405</v>
       </c>
       <c r="M44" t="n">
-        <v>1399.064511081384</v>
+        <v>1431.710335348188</v>
       </c>
       <c r="N44" t="n">
-        <v>1663.255499287528</v>
+        <v>1695.901323554332</v>
       </c>
       <c r="O44" t="n">
-        <v>1899.388296628721</v>
+        <v>1932.034120895525</v>
       </c>
       <c r="P44" t="n">
-        <v>2385.001896264896</v>
+        <v>2409.594617110751</v>
       </c>
       <c r="Q44" t="n">
-        <v>2672.455725954973</v>
+        <v>2697.048446800828</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.048446800828</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.048446800828</v>
       </c>
       <c r="T44" t="n">
-        <v>2631.109718285715</v>
+        <v>2631.109718285714</v>
       </c>
       <c r="U44" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920006</v>
       </c>
       <c r="V44" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336143</v>
       </c>
       <c r="W44" t="n">
         <v>2134.956029825737</v>
@@ -7691,7 +7691,7 @@
         <v>1908.602805324365</v>
       </c>
       <c r="Y44" t="n">
-        <v>1665.576007108262</v>
+        <v>1665.576007108261</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459849</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601656</v>
       </c>
       <c r="J45" t="n">
-        <v>192.3907614399509</v>
+        <v>192.3907614399508</v>
       </c>
       <c r="K45" t="n">
-        <v>555.6443519024861</v>
+        <v>555.6443519024859</v>
       </c>
       <c r="L45" t="n">
-        <v>1105.488028843562</v>
+        <v>1105.488028843561</v>
       </c>
       <c r="M45" t="n">
-        <v>1424.626209428958</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N45" t="n">
-        <v>1677.763210578802</v>
+        <v>1591.197875060671</v>
       </c>
       <c r="O45" t="n">
         <v>1887.114317104853</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>499.6019312162165</v>
+        <v>400.6585161782293</v>
       </c>
       <c r="C46" t="n">
-        <v>356.0521137551368</v>
+        <v>231.7223332503224</v>
       </c>
       <c r="D46" t="n">
-        <v>353.0480081025088</v>
+        <v>81.60569383798665</v>
       </c>
       <c r="E46" t="n">
-        <v>352.2474482798235</v>
+        <v>80.80513401530145</v>
       </c>
       <c r="F46" t="n">
-        <v>352.2474482798235</v>
+        <v>80.80513401530145</v>
       </c>
       <c r="G46" t="n">
-        <v>183.8197835193949</v>
+        <v>59.49000301458078</v>
       </c>
       <c r="H46" t="n">
-        <v>178.2707494408306</v>
+        <v>53.94096893601656</v>
       </c>
       <c r="I46" t="n">
-        <v>59.14751343128456</v>
+        <v>53.94096893601656</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601656</v>
       </c>
       <c r="K46" t="n">
         <v>175.39211710127</v>
       </c>
       <c r="L46" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M46" t="n">
         <v>619.1321880174387</v>
@@ -7837,19 +7837,19 @@
         <v>1080.60138472706</v>
       </c>
       <c r="U46" t="n">
-        <v>938.5715155323123</v>
+        <v>938.5715155323129</v>
       </c>
       <c r="V46" t="n">
-        <v>830.9995610861332</v>
+        <v>830.9995610861339</v>
       </c>
       <c r="W46" t="n">
-        <v>688.6949248088804</v>
+        <v>688.6949248088812</v>
       </c>
       <c r="X46" t="n">
-        <v>607.8179076705708</v>
+        <v>508.8744926325833</v>
       </c>
       <c r="Y46" t="n">
-        <v>534.1378622867485</v>
+        <v>435.1944472487611</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>180.8205403740194</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>380.4759295761908</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>316.7584581145761</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>211.6375988542462</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>46.41512463130289</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>327.9241016057881</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>372.1522779934577</v>
       </c>
       <c r="P12" t="n">
-        <v>179.3128548735311</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>326.6157986687066</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>180.8205403740193</v>
+        <v>345.1000650488705</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>281.7031016285022</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>327.9241016057884</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>372.1522779934577</v>
       </c>
       <c r="P15" t="n">
-        <v>136.3966111758603</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>50.61287514246122</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>178.4738359743375</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>188.7741878393821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>136.3966111758613</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>25.77174297492843</v>
+        <v>50.61287514246301</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,22 +9483,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>50.15549913855762</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>348.6959764366766</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>188.7741878393821</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>142.550696866053</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>363.1144472533333</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>40.22611509975431</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>211.5621175686705</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>262.2536022722884</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>36.79361359671918</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9890,10 +9890,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>34.44690919703531</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>87.43973284659609</v>
+        <v>87.43973284659614</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>205.8902287687914</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>16.06966587673648</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>87.43973284659594</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>87.43973284659597</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>387.1936682704657</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>228.3846565366418</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>87.43973284659609</v>
+        <v>87.43973284659614</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>215.5890193108982</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>71.94496087558954</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>87.43973284659654</v>
+        <v>87.4397328465966</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>215.5890193108975</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>407.4025276535969</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>118.5767232778434</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>231.0276925234157</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>439.340045975697</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>87.43973284659643</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>316.0109646712177</v>
       </c>
       <c r="O41" t="n">
-        <v>215.5890193108973</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>87.43973284659654</v>
+        <v>29.74573664612529</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>215.5890193108975</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>313.6642602715341</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,13 +11382,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>87.43973284659654</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>87.439732846597</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>127.6756294297795</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.4991588451548</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>290.299889451362</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.8067274289466</v>
+        <v>101.5968709499169</v>
       </c>
     </row>
     <row r="12">
@@ -23495,7 +23495,7 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C14" t="n">
-        <v>285.8416805439006</v>
+        <v>162.8397734181951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>43.53296090977494</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>231.5596978048557</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T14" t="n">
-        <v>131.4895384249673</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.8067274289466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>179.8983226496892</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>179.8983226496901</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786031</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>127.8399954518281</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>127.8399954518295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>950859.6405747834</v>
+        <v>950859.6405747833</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>950859.6405747834</v>
+        <v>950859.6405747836</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>976128.6563973343</v>
+        <v>976128.6563973344</v>
       </c>
     </row>
     <row r="10">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="C2" t="n">
         <v>532529.6201660751</v>
       </c>
       <c r="D2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="E2" t="n">
-        <v>466284.0808044884</v>
+        <v>466284.0808044886</v>
       </c>
       <c r="F2" t="n">
-        <v>466284.0808044884</v>
+        <v>466284.0808044891</v>
       </c>
       <c r="G2" t="n">
-        <v>524369.2111978888</v>
+        <v>524369.2111978891</v>
       </c>
       <c r="H2" t="n">
-        <v>524369.2111978889</v>
+        <v>524369.2111978891</v>
       </c>
       <c r="I2" t="n">
-        <v>533677.1504117837</v>
+        <v>533677.150411784</v>
       </c>
       <c r="J2" t="n">
         <v>533677.150411785</v>
       </c>
       <c r="K2" t="n">
+        <v>533677.1504117845</v>
+      </c>
+      <c r="L2" t="n">
         <v>533677.1504117849</v>
       </c>
-      <c r="L2" t="n">
-        <v>533677.1504117848</v>
-      </c>
       <c r="M2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="P2" t="n">
         <v>533677.1504117844</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>793631.6724150428</v>
+        <v>793631.6724150429</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.96898168565</v>
+        <v>63544.96898168557</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.251989061176796e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776754</v>
+        <v>12327.03098776742</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.18005323109</v>
+        <v>75688.18005323113</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.9689816856</v>
+        <v>63544.96898168561</v>
       </c>
       <c r="M3" t="n">
-        <v>137355.3289379698</v>
+        <v>137355.3289379699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>201402.0326272213</v>
       </c>
       <c r="H4" t="n">
-        <v>201402.0326272213</v>
+        <v>201402.0326272214</v>
       </c>
       <c r="I4" t="n">
         <v>206599.1074736613</v>
@@ -26454,10 +26454,10 @@
         <v>204259.4638285999</v>
       </c>
       <c r="O4" t="n">
-        <v>204259.4638285999</v>
+        <v>204259.4638286</v>
       </c>
       <c r="P4" t="n">
-        <v>204259.4638285999</v>
+        <v>204259.4638286</v>
       </c>
     </row>
     <row r="5">
@@ -26482,10 +26482,10 @@
         <v>57243.92344591294</v>
       </c>
       <c r="G5" t="n">
-        <v>63921.62594256461</v>
+        <v>63921.6259425646</v>
       </c>
       <c r="H5" t="n">
-        <v>63921.62594256461</v>
+        <v>63921.62594256463</v>
       </c>
       <c r="I5" t="n">
         <v>66740.07008220107</v>
@@ -26494,22 +26494,22 @@
         <v>77650.54597770229</v>
       </c>
       <c r="K5" t="n">
-        <v>77650.54597770231</v>
+        <v>77650.54597770229</v>
       </c>
       <c r="L5" t="n">
-        <v>77650.54597770231</v>
+        <v>77650.54597770229</v>
       </c>
       <c r="M5" t="n">
         <v>68321.30794187219</v>
       </c>
       <c r="N5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.30794187218</v>
       </c>
       <c r="O5" t="n">
         <v>68321.30794187219</v>
       </c>
       <c r="P5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.30794187218</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62628.14044682691</v>
+        <v>62623.72686895868</v>
       </c>
       <c r="C6" t="n">
-        <v>62628.14044682691</v>
+        <v>62623.72686895879</v>
       </c>
       <c r="D6" t="n">
-        <v>62628.14044682691</v>
+        <v>62623.72686895868</v>
       </c>
       <c r="E6" t="n">
-        <v>-535183.3172742516</v>
+        <v>-535442.5213881257</v>
       </c>
       <c r="F6" t="n">
-        <v>258448.3551407912</v>
+        <v>258189.1510269176</v>
       </c>
       <c r="G6" t="n">
-        <v>195500.5836464173</v>
+        <v>195464.7838802103</v>
       </c>
       <c r="H6" t="n">
-        <v>259045.552628103</v>
+        <v>259009.7528618957</v>
       </c>
       <c r="I6" t="n">
-        <v>248010.9418681538</v>
+        <v>248010.9418681541</v>
       </c>
       <c r="J6" t="n">
-        <v>186147.3063070036</v>
+        <v>186147.3063070035</v>
       </c>
       <c r="K6" t="n">
-        <v>261835.4863602346</v>
+        <v>261835.4863602343</v>
       </c>
       <c r="L6" t="n">
         <v>198290.5173785489</v>
       </c>
       <c r="M6" t="n">
-        <v>123741.0497033425</v>
+        <v>123741.0497033423</v>
       </c>
       <c r="N6" t="n">
-        <v>261096.3786413123</v>
+        <v>261096.3786413122</v>
       </c>
       <c r="O6" t="n">
-        <v>261096.3786413123</v>
+        <v>261096.3786413122</v>
       </c>
       <c r="P6" t="n">
         <v>261096.3786413123</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G2" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H2" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="I2" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="M2" t="n">
         <v>145.6414084221107</v>
@@ -26722,10 +26722,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="O2" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="P2" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="J3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="K3" t="n">
         <v>691.8460543973007</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="O3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="P3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
     </row>
     <row r="4">
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611863</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="F4" t="n">
-        <v>583.6180421611863</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="G4" t="n">
-        <v>583.6180421611863</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="H4" t="n">
-        <v>583.6180421611863</v>
+        <v>583.618042161187</v>
       </c>
       <c r="I4" t="n">
-        <v>629.9740312999438</v>
+        <v>629.974031299944</v>
       </c>
       <c r="J4" t="n">
-        <v>919.2532811708796</v>
+        <v>919.2532811708799</v>
       </c>
       <c r="K4" t="n">
-        <v>919.2532811708799</v>
+        <v>919.2532811708797</v>
       </c>
       <c r="L4" t="n">
-        <v>919.25328117088</v>
+        <v>919.2532811708797</v>
       </c>
       <c r="M4" t="n">
         <v>674.2621117002076</v>
@@ -26829,7 +26829,7 @@
         <v>674.2621117002074</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2621117002074</v>
+        <v>674.262111700207</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.43121122710706</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.431211227107</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500367</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611863</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.640279090678206e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>46.35598913875754</v>
+        <v>46.35598913875708</v>
       </c>
       <c r="J4" t="n">
         <v>289.2792498709358</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>338.6268726905139</v>
+        <v>338.6268726905143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710706</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.6180421611863</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.640279090678206e-13</v>
       </c>
     </row>
   </sheetData>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="12">
@@ -28181,10 +28181,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>67.11943691068029</v>
       </c>
       <c r="H12" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I12" t="n">
         <v>38.16086372859611</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28229,10 +28229,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>79.43121122710697</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>67.11943691068106</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="15">
@@ -28406,13 +28406,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>67.1194369106811</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>79.43121122710697</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>79.43121122710697</v>
+        <v>59.35568526792542</v>
       </c>
       <c r="I15" t="n">
         <v>38.16086372859611</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="E17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="F17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="G17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="I17" t="n">
         <v>103.2501809788403</v>
@@ -28615,22 +28615,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="18">
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I18" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,10 +28694,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>158.862422454214</v>
+        <v>30.42400614836279</v>
       </c>
       <c r="U18" t="n">
-        <v>67.1194369106808</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28719,25 +28719,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C19" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H19" t="n">
-        <v>76.29976372271844</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>117.9320036494506</v>
@@ -28770,25 +28770,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S19" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="T19" t="n">
-        <v>158.862422454214</v>
+        <v>91.92264852564571</v>
       </c>
       <c r="U19" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V19" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W19" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X19" t="n">
-        <v>158.862422454214</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="E20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="F20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="G20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="I20" t="n">
         <v>103.2501809788403</v>
@@ -28852,22 +28852,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="21">
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>128.118537881067</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H21" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>38.16086372859611</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>82.36271226083798</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,22 +28956,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.862422454214</v>
+        <v>84.02723401704402</v>
       </c>
       <c r="C22" t="n">
-        <v>158.862422454214</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H22" t="n">
         <v>151.1349521598894</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="T22" t="n">
-        <v>72.23179807976149</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U22" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W22" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X22" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="E23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="F23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="G23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="I23" t="n">
         <v>103.2501809788403</v>
@@ -29089,22 +29089,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>38.31978507244989</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>76.48064880104485</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C25" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29208,10 +29208,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H25" t="n">
-        <v>102.1695979616462</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I25" t="n">
         <v>117.9320036494506</v>
@@ -29247,22 +29247,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>109.8970682559714</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V25" t="n">
-        <v>158.862422454214</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>158.862422454214</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="N31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="O31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="P31" t="n">
-        <v>79.43121122710576</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="R31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="C32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="D32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="E32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="F32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="G32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="H32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="I32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="T32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="U32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="V32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="W32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="X32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="C34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="D34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="E34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="F34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="G34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="H34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="I34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="J34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710536</v>
       </c>
       <c r="K34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="L34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="M34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="N34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="O34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="P34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="R34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="T34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="U34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="V34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="W34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="X34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710701</v>
       </c>
     </row>
     <row r="35">
@@ -30144,7 +30144,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C37" t="n">
-        <v>52.84190658481897</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="D37" t="n">
         <v>145.6414084221107</v>
@@ -30165,7 +30165,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,13 +30189,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.6414084221107</v>
+        <v>23.24317139039778</v>
       </c>
       <c r="U37" t="n">
         <v>145.6414084221107</v>
@@ -30210,7 +30210,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
     </row>
     <row r="38">
@@ -30384,25 +30384,25 @@
         <v>145.6414084221107</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>52.84190658481904</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="H40" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450366</v>
       </c>
       <c r="I40" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,10 +30429,10 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>145.6414084221107</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="C41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="D41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="E41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="F41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="G41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="H41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="I41" t="n">
         <v>103.2501809788403</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="T41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="U41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="V41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="W41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="X41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="C43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="D43" t="n">
-        <v>52.62154618563963</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="H43" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450216</v>
       </c>
       <c r="I43" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="T43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="U43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="X43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="C44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="D44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="E44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="F44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="G44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="H44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="I44" t="n">
         <v>103.2501809788403</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="T44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="U44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="V44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="W44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="X44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="C46" t="n">
-        <v>25.13250181215892</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="H46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="T46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="U46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="V46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="W46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="X46" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450223</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
   </sheetData>
@@ -31753,46 +31753,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H11" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I11" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J11" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K11" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L11" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M11" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N11" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P11" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R11" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T11" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,7 +31832,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H12" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I12" t="n">
         <v>51.23576912281897</v>
@@ -31841,7 +31841,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K12" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L12" t="n">
         <v>323.1116879522488</v>
@@ -31859,19 +31859,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S12" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T12" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,22 +31914,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I13" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J13" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K13" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L13" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M13" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N13" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O13" t="n">
         <v>176.341351701135</v>
@@ -31941,16 +31941,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S13" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H14" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I14" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J14" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K14" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L14" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M14" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N14" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O14" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P14" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q14" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R14" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T14" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,7 +32069,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H15" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I15" t="n">
         <v>51.23576912281897</v>
@@ -32078,7 +32078,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K15" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L15" t="n">
         <v>323.1116879522488</v>
@@ -32096,19 +32096,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S15" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T15" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,22 +32151,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I16" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J16" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K16" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L16" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M16" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N16" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O16" t="n">
         <v>176.341351701135</v>
@@ -32178,16 +32178,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R16" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S16" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32227,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H17" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I17" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J17" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K17" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L17" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M17" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N17" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O17" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P17" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R17" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,7 +32306,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H18" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I18" t="n">
         <v>51.23576912281897</v>
@@ -32315,7 +32315,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K18" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L18" t="n">
         <v>323.1116879522488</v>
@@ -32333,19 +32333,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S18" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T18" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,22 +32388,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I19" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J19" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K19" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L19" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M19" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N19" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O19" t="n">
         <v>176.341351701135</v>
@@ -32415,16 +32415,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S19" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,46 +32464,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H20" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I20" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J20" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K20" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L20" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M20" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N20" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O20" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P20" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q20" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R20" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,7 +32543,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H21" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I21" t="n">
         <v>51.23576912281897</v>
@@ -32552,7 +32552,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K21" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L21" t="n">
         <v>323.1116879522488</v>
@@ -32570,19 +32570,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q21" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S21" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T21" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,22 +32625,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I22" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J22" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K22" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L22" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M22" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N22" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O22" t="n">
         <v>176.341351701135</v>
@@ -32652,16 +32652,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S22" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,46 +32701,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H23" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I23" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J23" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K23" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L23" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M23" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N23" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O23" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P23" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q23" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R23" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,7 +32780,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H24" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I24" t="n">
         <v>51.23576912281897</v>
@@ -32789,7 +32789,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K24" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L24" t="n">
         <v>323.1116879522488</v>
@@ -32807,19 +32807,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S24" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T24" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,22 +32862,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I25" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J25" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K25" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L25" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M25" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N25" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O25" t="n">
         <v>176.341351701135</v>
@@ -32889,16 +32889,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S25" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,46 +32938,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H26" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I26" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J26" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K26" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L26" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M26" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N26" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O26" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P26" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q26" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R26" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S26" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T26" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,7 +33017,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H27" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I27" t="n">
         <v>51.23576912281897</v>
@@ -33026,7 +33026,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K27" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L27" t="n">
         <v>323.1116879522488</v>
@@ -33044,19 +33044,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q27" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S27" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T27" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,22 +33099,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I28" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J28" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K28" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L28" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M28" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N28" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O28" t="n">
         <v>176.341351701135</v>
@@ -33126,16 +33126,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R28" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S28" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T28" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33412,46 +33412,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H32" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I32" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J32" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K32" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L32" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M32" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N32" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O32" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P32" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q32" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R32" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T32" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,7 +33491,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H33" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I33" t="n">
         <v>51.23576912281897</v>
@@ -33500,7 +33500,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K33" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L33" t="n">
         <v>323.1116879522488</v>
@@ -33518,19 +33518,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q33" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S33" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T33" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,22 +33573,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I34" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J34" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K34" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L34" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M34" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N34" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O34" t="n">
         <v>176.341351701135</v>
@@ -33600,16 +33600,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R34" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S34" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,46 +33649,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H35" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I35" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J35" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K35" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L35" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M35" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N35" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O35" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P35" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q35" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R35" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T35" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,7 +33728,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H36" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I36" t="n">
         <v>51.23576912281897</v>
@@ -33737,7 +33737,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K36" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L36" t="n">
         <v>323.1116879522488</v>
@@ -33755,19 +33755,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q36" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S36" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T36" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,22 +33810,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I37" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J37" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K37" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L37" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M37" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N37" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O37" t="n">
         <v>176.341351701135</v>
@@ -33837,16 +33837,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R37" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S37" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,46 +33886,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H38" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I38" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J38" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K38" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L38" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M38" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N38" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O38" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P38" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q38" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R38" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T38" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H39" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I39" t="n">
         <v>51.23576912281897</v>
@@ -33974,7 +33974,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K39" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L39" t="n">
         <v>323.1116879522488</v>
@@ -33992,19 +33992,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q39" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S39" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T39" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,22 +34047,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I40" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J40" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K40" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L40" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M40" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N40" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O40" t="n">
         <v>176.341351701135</v>
@@ -34074,16 +34074,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R40" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S40" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,46 +34123,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H41" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I41" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J41" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K41" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L41" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M41" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N41" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O41" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P41" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q41" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R41" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S41" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T41" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,7 +34202,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H42" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I42" t="n">
         <v>51.23576912281897</v>
@@ -34211,7 +34211,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K42" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L42" t="n">
         <v>323.1116879522488</v>
@@ -34229,19 +34229,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q42" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R42" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S42" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T42" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,22 +34284,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I43" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J43" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K43" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L43" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M43" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N43" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O43" t="n">
         <v>176.341351701135</v>
@@ -34311,16 +34311,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R43" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S43" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T43" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,46 +34360,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H44" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I44" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J44" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K44" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L44" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M44" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N44" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O44" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P44" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q44" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R44" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S44" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T44" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,7 +34439,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H45" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I45" t="n">
         <v>51.23576912281897</v>
@@ -34448,7 +34448,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K45" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L45" t="n">
         <v>323.1116879522488</v>
@@ -34466,19 +34466,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q45" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R45" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S45" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T45" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,22 +34521,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I46" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J46" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K46" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L46" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M46" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N46" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O46" t="n">
         <v>176.341351701135</v>
@@ -34548,16 +34548,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R46" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S46" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T46" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K11" t="n">
-        <v>314.5212925131218</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L11" t="n">
-        <v>203.1421125849959</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="M11" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N11" t="n">
-        <v>266.8595840466106</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="O11" t="n">
-        <v>238.5179771123161</v>
+        <v>450.1555759665622</v>
       </c>
       <c r="P11" t="n">
-        <v>490.5187875112878</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q11" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R11" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K12" t="n">
-        <v>366.9228186490254</v>
+        <v>148.8727062677497</v>
       </c>
       <c r="L12" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M12" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6180421611863</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O12" t="n">
-        <v>211.4657641677289</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="P12" t="n">
-        <v>329.5044240285375</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.27673217679168</v>
+        <v>74.27673217679165</v>
       </c>
       <c r="K13" t="n">
         <v>202.1091386667569</v>
       </c>
       <c r="L13" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M13" t="n">
         <v>314.5806868114501</v>
@@ -35586,7 +35586,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73792218940498</v>
+        <v>97.73792218940496</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K14" t="n">
-        <v>133.7007521391024</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L14" t="n">
-        <v>203.1421125849959</v>
+        <v>529.7579112537023</v>
       </c>
       <c r="M14" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N14" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O14" t="n">
-        <v>419.3385174863354</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="P14" t="n">
-        <v>490.5187875112878</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q14" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R14" t="n">
-        <v>24.8411321675315</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K15" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M15" t="n">
-        <v>234.9220657245105</v>
+        <v>516.6251673530127</v>
       </c>
       <c r="N15" t="n">
-        <v>255.6939405553981</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="O15" t="n">
-        <v>211.4657641677289</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="P15" t="n">
-        <v>286.5881803308667</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q15" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.27673217679168</v>
+        <v>74.27673217679165</v>
       </c>
       <c r="K16" t="n">
         <v>202.1091386667569</v>
       </c>
       <c r="L16" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M16" t="n">
         <v>314.5806868114501</v>
@@ -35823,7 +35823,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.73792218940498</v>
+        <v>97.73792218940496</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>224.1092797284143</v>
+        <v>105.6255396988017</v>
       </c>
       <c r="K17" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L17" t="n">
-        <v>203.1421125849959</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M17" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N17" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O17" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P17" t="n">
-        <v>347.1939153141427</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q17" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R17" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K18" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L18" t="n">
-        <v>373.3314960117567</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M18" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N18" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O18" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P18" t="n">
-        <v>468.6543377949436</v>
+        <v>286.5881803308676</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,16 +36051,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N19" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O19" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P19" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>80.78440753126893</v>
+        <v>105.6255396988035</v>
       </c>
       <c r="K20" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L20" t="n">
-        <v>203.1421125849959</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M20" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N20" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O20" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P20" t="n">
         <v>490.5187875112878</v>
       </c>
       <c r="Q20" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R20" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K21" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L21" t="n">
-        <v>184.5573081723746</v>
+        <v>234.7128073109322</v>
       </c>
       <c r="M21" t="n">
-        <v>234.9220657245105</v>
+        <v>583.618042161187</v>
       </c>
       <c r="N21" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O21" t="n">
-        <v>400.239952007111</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P21" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q21" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,16 +36288,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N22" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O22" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P22" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K23" t="n">
-        <v>276.2514490051555</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L23" t="n">
-        <v>620.8033271354464</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M23" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N23" t="n">
-        <v>629.9740312999438</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O23" t="n">
-        <v>238.5179771123161</v>
+        <v>278.7440922120703</v>
       </c>
       <c r="P23" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K24" t="n">
         <v>366.9228186490254</v>
@@ -36443,19 +36443,19 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M24" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N24" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O24" t="n">
-        <v>423.0278817363994</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P24" t="n">
-        <v>468.6543377949436</v>
+        <v>412.4451714272948</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.97565579302605</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,16 +36525,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N25" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O25" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P25" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K26" t="n">
-        <v>457.8461647102671</v>
+        <v>170.4943657358215</v>
       </c>
       <c r="L26" t="n">
-        <v>620.8033271354464</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M26" t="n">
         <v>707.5376057899417</v>
       </c>
       <c r="N26" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585946</v>
       </c>
       <c r="O26" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P26" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q26" t="n">
-        <v>112.4893222644813</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R26" t="n">
-        <v>24.8411321675315</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K27" t="n">
         <v>366.9228186490254</v>
@@ -36686,13 +36686,13 @@
         <v>255.6939405553981</v>
       </c>
       <c r="O27" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P27" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q27" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.2767321767917</v>
+        <v>74.27673217679164</v>
       </c>
       <c r="K28" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L28" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M28" t="n">
-        <v>314.5806868114501</v>
+        <v>314.58068681145</v>
       </c>
       <c r="N28" t="n">
         <v>314.4788694042006</v>
@@ -36768,10 +36768,10 @@
         <v>280.3576908422816</v>
       </c>
       <c r="P28" t="n">
-        <v>227.600260782192</v>
+        <v>227.6002607821919</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.737922189405</v>
+        <v>97.73792218940494</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>55.0126645563405</v>
       </c>
       <c r="K29" t="n">
-        <v>457.8461647102671</v>
+        <v>339.5909809078938</v>
       </c>
       <c r="L29" t="n">
         <v>620.8033271354464</v>
@@ -36847,13 +36847,13 @@
         <v>619.3181583750614</v>
       </c>
       <c r="P29" t="n">
-        <v>184.7897452165417</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q29" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744601</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>24.8411321675315</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>234.9220657245105</v>
       </c>
       <c r="N30" t="n">
-        <v>343.1336734019941</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O30" t="n">
-        <v>211.4657641677289</v>
+        <v>298.9054970143249</v>
       </c>
       <c r="P30" t="n">
         <v>468.6543377949436</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.2767321767917</v>
+        <v>74.27673217679167</v>
       </c>
       <c r="K31" t="n">
         <v>202.1091386667569</v>
@@ -37005,10 +37005,10 @@
         <v>280.3576908422816</v>
       </c>
       <c r="P31" t="n">
-        <v>227.6002607821908</v>
+        <v>227.600260782192</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.737922189405</v>
+        <v>97.73792218940497</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K32" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L32" t="n">
-        <v>620.8033271354464</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M32" t="n">
-        <v>645.2177405675749</v>
+        <v>707.5376057899417</v>
       </c>
       <c r="N32" t="n">
-        <v>266.8595840466106</v>
+        <v>704.2065084585946</v>
       </c>
       <c r="O32" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P32" t="n">
-        <v>490.5187875112878</v>
+        <v>397.1047358764469</v>
       </c>
       <c r="Q32" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R32" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K33" t="n">
         <v>366.9228186490254</v>
@@ -37160,13 +37160,13 @@
         <v>255.6939405553981</v>
       </c>
       <c r="O33" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P33" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q33" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.27673217679164</v>
+        <v>74.27673217679006</v>
       </c>
       <c r="K34" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L34" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M34" t="n">
         <v>314.5806868114501</v>
@@ -37245,7 +37245,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940501</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K35" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L35" t="n">
-        <v>203.1421125849959</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M35" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N35" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O35" t="n">
-        <v>454.1069964232143</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P35" t="n">
         <v>490.5187875112878</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.3574037273507</v>
+        <v>149.9873739430355</v>
       </c>
       <c r="R35" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K36" t="n">
         <v>366.9228186490254</v>
@@ -37397,13 +37397,13 @@
         <v>255.6939405553981</v>
       </c>
       <c r="O36" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P36" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q36" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,16 +37473,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N37" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O37" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P37" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K38" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L38" t="n">
-        <v>203.1421125849959</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M38" t="n">
-        <v>473.6130916080068</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N38" t="n">
-        <v>266.8595840466106</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O38" t="n">
-        <v>238.5179771123161</v>
+        <v>357.0947003901594</v>
       </c>
       <c r="P38" t="n">
-        <v>490.5187875112878</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q38" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R38" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K39" t="n">
-        <v>366.9228186490254</v>
+        <v>333.4852741598625</v>
       </c>
       <c r="L39" t="n">
         <v>555.3976534758337</v>
       </c>
       <c r="M39" t="n">
-        <v>234.9220657245105</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="N39" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O39" t="n">
-        <v>298.9054970143253</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P39" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q39" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,16 +37710,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N40" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O40" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P40" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K41" t="n">
-        <v>457.8461647102671</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L41" t="n">
-        <v>203.1421125849959</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M41" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N41" t="n">
-        <v>266.8595840466106</v>
+        <v>582.8705487178281</v>
       </c>
       <c r="O41" t="n">
-        <v>454.1069964232134</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P41" t="n">
         <v>490.5187875112878</v>
       </c>
       <c r="Q41" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R41" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K42" t="n">
         <v>366.9228186490254</v>
@@ -37865,19 +37865,19 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M42" t="n">
-        <v>322.361798571107</v>
+        <v>264.6678023706357</v>
       </c>
       <c r="N42" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O42" t="n">
-        <v>211.4657641677289</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P42" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q42" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,16 +37947,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N43" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O43" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P43" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K44" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L44" t="n">
-        <v>203.1421125849959</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M44" t="n">
-        <v>473.6130916080068</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N44" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O44" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P44" t="n">
-        <v>490.5187875112878</v>
+        <v>482.3843396113392</v>
       </c>
       <c r="Q44" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R44" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K45" t="n">
         <v>366.9228186490254</v>
@@ -38102,19 +38102,19 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M45" t="n">
-        <v>322.361798571107</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N45" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O45" t="n">
-        <v>211.4657641677289</v>
+        <v>298.9054970143258</v>
       </c>
       <c r="P45" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,16 +38184,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N46" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O46" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P46" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
